--- a/app/04-kreise.xlsx
+++ b/app/04-kreise.xlsx
@@ -19625,8 +19625,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004456E7D0170A5843A32AE86FB4FC254D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f537ef4707253babc9c7e529a7fe617d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b0062f6-3850-45c4-a49c-48289d7656f5" xmlns:ns3="d4476a09-aef8-48ac-8c6f-fc751ea8799c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4de5c604fe36cfd17853a55eecc7430d" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004456E7D0170A5843A32AE86FB4FC254D" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="235279f01f294a63ec87ee3004477524">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b0062f6-3850-45c4-a49c-48289d7656f5" xmlns:ns3="d4476a09-aef8-48ac-8c6f-fc751ea8799c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1dda21a9530c309e182265077ef4719b" ns2:_="" ns3:_="">
     <xsd:import namespace="9b0062f6-3850-45c4-a49c-48289d7656f5"/>
     <xsd:import namespace="d4476a09-aef8-48ac-8c6f-fc751ea8799c"/>
     <xsd:element name="properties">
@@ -19647,6 +19647,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -19711,11 +19713,18 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="32a6b19d-68da-4000-ad0e-8ca94f8fa4c6" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d4476a09-aef8-48ac-8c6f-fc751ea8799c" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -19734,12 +19743,23 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{98ac2856-a420-4c13-9ab7-04832fcb732f}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d4476a09-aef8-48ac-8c6f-fc751ea8799c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -19751,8 +19771,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -19852,12 +19872,17 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9b0062f6-3850-45c4-a49c-48289d7656f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d4476a09-aef8-48ac-8c6f-fc751ea8799c" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D29EE0F2-4645-45AB-B1F3-FF69EE81D2FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3388B0AF-4144-44E0-BB33-C4E4884C3354}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/app/04-kreise.xlsx
+++ b/app/04-kreise.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\F202\Gebietsstand\31191100-6_VOE\31191100-707_Produkte\Standardtabellen\2010_bis_2018\GESPERRT_2019_ZENSUS2011\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhartmann.KLINIKUM\Uniklinik RWTH Aachen\COVAS (COVID-19 Aachen Study) - Register\CRF\DIVIDashboard\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="396" windowWidth="28272" windowHeight="13836"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="13830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Deckblatt" sheetId="1" r:id="rId1"/>
-    <sheet name="Kreisfreie Städte u. Landkreise" sheetId="2" r:id="rId2"/>
+    <sheet name="Kreise" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Kreisfreie Städte u. Landkreise'!$A$9:$C$481</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Kreisfreie Städte u. Landkreise'!$1:$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kreise!$A$9:$C$481</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Kreise!$1:$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -4146,7 +4146,7 @@
     <numFmt numFmtId="171" formatCode="#\ ##0"/>
     <numFmt numFmtId="172" formatCode="##\ ###\ ###"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4642,8 +4642,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Link" xfId="3" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2 5" xfId="4"/>
     <cellStyle name="Standard_Auszug GV100 300900" xfId="2"/>
     <cellStyle name="Standard_GV2000_VERBAND_300610_2_Q" xfId="1"/>
@@ -4736,7 +4736,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5024,38 +5024,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.44140625" style="2"/>
-    <col min="7" max="7" width="15.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="4" customWidth="1"/>
-    <col min="9" max="10" width="11.44140625" style="4"/>
-    <col min="11" max="11" width="14.33203125" style="4" customWidth="1"/>
-    <col min="12" max="13" width="11.44140625" style="4"/>
-    <col min="14" max="14" width="15.109375" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="15.5703125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="4" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="4"/>
+    <col min="11" max="11" width="14.28515625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" style="4"/>
+    <col min="14" max="14" width="15.140625" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="26.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -5064,131 +5064,131 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="8"/>
       <c r="H6" s="9"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="8"/>
       <c r="H7" s="9"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="8"/>
       <c r="H8" s="9"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="26.25" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="26.25" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="26.25" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="16.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15">
       <c r="A13" s="8"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15">
       <c r="A14" s="8"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15">
       <c r="A15" s="8"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15">
       <c r="A16" s="8"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="8"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" s="8"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="8"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="8"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" s="8"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" s="8"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15">
       <c r="A23" s="8"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" s="8"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15">
       <c r="A25" s="8"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15">
       <c r="A26" s="8"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15">
       <c r="A27" s="8"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15">
       <c r="A28" s="8"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" s="8"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15">
       <c r="A30" s="8"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" s="8"/>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15">
       <c r="A32" s="8"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="15">
       <c r="A33" s="8"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:14" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="26.25">
       <c r="A34" s="11" t="s">
         <v>1335</v>
       </c>
       <c r="C34" s="14"/>
     </row>
-    <row r="35" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="16.5" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>1337</v>
       </c>
@@ -5200,7 +5200,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="15">
       <c r="A36" s="8"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -5210,48 +5210,48 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="17"/>
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="17"/>
       <c r="J44" s="18"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="2" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="11:11">
       <c r="K60" s="19"/>
     </row>
   </sheetData>
@@ -5269,591 +5269,591 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S659"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="15" customWidth="1"/>
     <col min="3" max="3" width="27" style="53" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.44140625" style="67" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="67" customWidth="1"/>
-    <col min="10" max="256" width="11.44140625" style="15"/>
-    <col min="257" max="257" width="9.5546875" style="15" customWidth="1"/>
-    <col min="258" max="258" width="14.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="67" customWidth="1"/>
+    <col min="10" max="256" width="11.42578125" style="15"/>
+    <col min="257" max="257" width="9.5703125" style="15" customWidth="1"/>
+    <col min="258" max="258" width="14.28515625" style="15" customWidth="1"/>
     <col min="259" max="259" width="27" style="15" customWidth="1"/>
-    <col min="260" max="260" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="263" max="264" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="9.44140625" style="15" customWidth="1"/>
-    <col min="266" max="512" width="11.44140625" style="15"/>
-    <col min="513" max="513" width="9.5546875" style="15" customWidth="1"/>
-    <col min="514" max="514" width="14.33203125" style="15" customWidth="1"/>
+    <col min="260" max="260" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="263" max="264" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="9.42578125" style="15" customWidth="1"/>
+    <col min="266" max="512" width="11.42578125" style="15"/>
+    <col min="513" max="513" width="9.5703125" style="15" customWidth="1"/>
+    <col min="514" max="514" width="14.28515625" style="15" customWidth="1"/>
     <col min="515" max="515" width="27" style="15" customWidth="1"/>
-    <col min="516" max="516" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="519" max="520" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="9.44140625" style="15" customWidth="1"/>
-    <col min="522" max="768" width="11.44140625" style="15"/>
-    <col min="769" max="769" width="9.5546875" style="15" customWidth="1"/>
-    <col min="770" max="770" width="14.33203125" style="15" customWidth="1"/>
+    <col min="516" max="516" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="519" max="520" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="9.42578125" style="15" customWidth="1"/>
+    <col min="522" max="768" width="11.42578125" style="15"/>
+    <col min="769" max="769" width="9.5703125" style="15" customWidth="1"/>
+    <col min="770" max="770" width="14.28515625" style="15" customWidth="1"/>
     <col min="771" max="771" width="27" style="15" customWidth="1"/>
-    <col min="772" max="772" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="775" max="776" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="9.44140625" style="15" customWidth="1"/>
-    <col min="778" max="1024" width="11.44140625" style="15"/>
-    <col min="1025" max="1025" width="9.5546875" style="15" customWidth="1"/>
-    <col min="1026" max="1026" width="14.33203125" style="15" customWidth="1"/>
+    <col min="772" max="772" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="775" max="776" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="9.42578125" style="15" customWidth="1"/>
+    <col min="778" max="1024" width="11.42578125" style="15"/>
+    <col min="1025" max="1025" width="9.5703125" style="15" customWidth="1"/>
+    <col min="1026" max="1026" width="14.28515625" style="15" customWidth="1"/>
     <col min="1027" max="1027" width="27" style="15" customWidth="1"/>
-    <col min="1028" max="1028" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1032" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="9.44140625" style="15" customWidth="1"/>
-    <col min="1034" max="1280" width="11.44140625" style="15"/>
-    <col min="1281" max="1281" width="9.5546875" style="15" customWidth="1"/>
-    <col min="1282" max="1282" width="14.33203125" style="15" customWidth="1"/>
+    <col min="1028" max="1028" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1032" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="9.42578125" style="15" customWidth="1"/>
+    <col min="1034" max="1280" width="11.42578125" style="15"/>
+    <col min="1281" max="1281" width="9.5703125" style="15" customWidth="1"/>
+    <col min="1282" max="1282" width="14.28515625" style="15" customWidth="1"/>
     <col min="1283" max="1283" width="27" style="15" customWidth="1"/>
-    <col min="1284" max="1284" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1288" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="9.44140625" style="15" customWidth="1"/>
-    <col min="1290" max="1536" width="11.44140625" style="15"/>
-    <col min="1537" max="1537" width="9.5546875" style="15" customWidth="1"/>
-    <col min="1538" max="1538" width="14.33203125" style="15" customWidth="1"/>
+    <col min="1284" max="1284" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1288" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="9.42578125" style="15" customWidth="1"/>
+    <col min="1290" max="1536" width="11.42578125" style="15"/>
+    <col min="1537" max="1537" width="9.5703125" style="15" customWidth="1"/>
+    <col min="1538" max="1538" width="14.28515625" style="15" customWidth="1"/>
     <col min="1539" max="1539" width="27" style="15" customWidth="1"/>
-    <col min="1540" max="1540" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1544" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="9.44140625" style="15" customWidth="1"/>
-    <col min="1546" max="1792" width="11.44140625" style="15"/>
-    <col min="1793" max="1793" width="9.5546875" style="15" customWidth="1"/>
-    <col min="1794" max="1794" width="14.33203125" style="15" customWidth="1"/>
+    <col min="1540" max="1540" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1544" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="9.42578125" style="15" customWidth="1"/>
+    <col min="1546" max="1792" width="11.42578125" style="15"/>
+    <col min="1793" max="1793" width="9.5703125" style="15" customWidth="1"/>
+    <col min="1794" max="1794" width="14.28515625" style="15" customWidth="1"/>
     <col min="1795" max="1795" width="27" style="15" customWidth="1"/>
-    <col min="1796" max="1796" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1800" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="9.44140625" style="15" customWidth="1"/>
-    <col min="1802" max="2048" width="11.44140625" style="15"/>
-    <col min="2049" max="2049" width="9.5546875" style="15" customWidth="1"/>
-    <col min="2050" max="2050" width="14.33203125" style="15" customWidth="1"/>
+    <col min="1796" max="1796" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1800" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="9.42578125" style="15" customWidth="1"/>
+    <col min="1802" max="2048" width="11.42578125" style="15"/>
+    <col min="2049" max="2049" width="9.5703125" style="15" customWidth="1"/>
+    <col min="2050" max="2050" width="14.28515625" style="15" customWidth="1"/>
     <col min="2051" max="2051" width="27" style="15" customWidth="1"/>
-    <col min="2052" max="2052" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2056" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="9.44140625" style="15" customWidth="1"/>
-    <col min="2058" max="2304" width="11.44140625" style="15"/>
-    <col min="2305" max="2305" width="9.5546875" style="15" customWidth="1"/>
-    <col min="2306" max="2306" width="14.33203125" style="15" customWidth="1"/>
+    <col min="2052" max="2052" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2056" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="9.42578125" style="15" customWidth="1"/>
+    <col min="2058" max="2304" width="11.42578125" style="15"/>
+    <col min="2305" max="2305" width="9.5703125" style="15" customWidth="1"/>
+    <col min="2306" max="2306" width="14.28515625" style="15" customWidth="1"/>
     <col min="2307" max="2307" width="27" style="15" customWidth="1"/>
-    <col min="2308" max="2308" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2312" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="9.44140625" style="15" customWidth="1"/>
-    <col min="2314" max="2560" width="11.44140625" style="15"/>
-    <col min="2561" max="2561" width="9.5546875" style="15" customWidth="1"/>
-    <col min="2562" max="2562" width="14.33203125" style="15" customWidth="1"/>
+    <col min="2308" max="2308" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2312" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="9.42578125" style="15" customWidth="1"/>
+    <col min="2314" max="2560" width="11.42578125" style="15"/>
+    <col min="2561" max="2561" width="9.5703125" style="15" customWidth="1"/>
+    <col min="2562" max="2562" width="14.28515625" style="15" customWidth="1"/>
     <col min="2563" max="2563" width="27" style="15" customWidth="1"/>
-    <col min="2564" max="2564" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2568" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="9.44140625" style="15" customWidth="1"/>
-    <col min="2570" max="2816" width="11.44140625" style="15"/>
-    <col min="2817" max="2817" width="9.5546875" style="15" customWidth="1"/>
-    <col min="2818" max="2818" width="14.33203125" style="15" customWidth="1"/>
+    <col min="2564" max="2564" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2568" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="9.42578125" style="15" customWidth="1"/>
+    <col min="2570" max="2816" width="11.42578125" style="15"/>
+    <col min="2817" max="2817" width="9.5703125" style="15" customWidth="1"/>
+    <col min="2818" max="2818" width="14.28515625" style="15" customWidth="1"/>
     <col min="2819" max="2819" width="27" style="15" customWidth="1"/>
-    <col min="2820" max="2820" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2824" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="9.44140625" style="15" customWidth="1"/>
-    <col min="2826" max="3072" width="11.44140625" style="15"/>
-    <col min="3073" max="3073" width="9.5546875" style="15" customWidth="1"/>
-    <col min="3074" max="3074" width="14.33203125" style="15" customWidth="1"/>
+    <col min="2820" max="2820" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2824" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="9.42578125" style="15" customWidth="1"/>
+    <col min="2826" max="3072" width="11.42578125" style="15"/>
+    <col min="3073" max="3073" width="9.5703125" style="15" customWidth="1"/>
+    <col min="3074" max="3074" width="14.28515625" style="15" customWidth="1"/>
     <col min="3075" max="3075" width="27" style="15" customWidth="1"/>
-    <col min="3076" max="3076" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3080" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="9.44140625" style="15" customWidth="1"/>
-    <col min="3082" max="3328" width="11.44140625" style="15"/>
-    <col min="3329" max="3329" width="9.5546875" style="15" customWidth="1"/>
-    <col min="3330" max="3330" width="14.33203125" style="15" customWidth="1"/>
+    <col min="3076" max="3076" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3080" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="9.42578125" style="15" customWidth="1"/>
+    <col min="3082" max="3328" width="11.42578125" style="15"/>
+    <col min="3329" max="3329" width="9.5703125" style="15" customWidth="1"/>
+    <col min="3330" max="3330" width="14.28515625" style="15" customWidth="1"/>
     <col min="3331" max="3331" width="27" style="15" customWidth="1"/>
-    <col min="3332" max="3332" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3336" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="9.44140625" style="15" customWidth="1"/>
-    <col min="3338" max="3584" width="11.44140625" style="15"/>
-    <col min="3585" max="3585" width="9.5546875" style="15" customWidth="1"/>
-    <col min="3586" max="3586" width="14.33203125" style="15" customWidth="1"/>
+    <col min="3332" max="3332" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3336" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="9.42578125" style="15" customWidth="1"/>
+    <col min="3338" max="3584" width="11.42578125" style="15"/>
+    <col min="3585" max="3585" width="9.5703125" style="15" customWidth="1"/>
+    <col min="3586" max="3586" width="14.28515625" style="15" customWidth="1"/>
     <col min="3587" max="3587" width="27" style="15" customWidth="1"/>
-    <col min="3588" max="3588" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3592" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="9.44140625" style="15" customWidth="1"/>
-    <col min="3594" max="3840" width="11.44140625" style="15"/>
-    <col min="3841" max="3841" width="9.5546875" style="15" customWidth="1"/>
-    <col min="3842" max="3842" width="14.33203125" style="15" customWidth="1"/>
+    <col min="3588" max="3588" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3592" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="9.42578125" style="15" customWidth="1"/>
+    <col min="3594" max="3840" width="11.42578125" style="15"/>
+    <col min="3841" max="3841" width="9.5703125" style="15" customWidth="1"/>
+    <col min="3842" max="3842" width="14.28515625" style="15" customWidth="1"/>
     <col min="3843" max="3843" width="27" style="15" customWidth="1"/>
-    <col min="3844" max="3844" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3848" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="9.44140625" style="15" customWidth="1"/>
-    <col min="3850" max="4096" width="11.44140625" style="15"/>
-    <col min="4097" max="4097" width="9.5546875" style="15" customWidth="1"/>
-    <col min="4098" max="4098" width="14.33203125" style="15" customWidth="1"/>
+    <col min="3844" max="3844" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3848" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="9.42578125" style="15" customWidth="1"/>
+    <col min="3850" max="4096" width="11.42578125" style="15"/>
+    <col min="4097" max="4097" width="9.5703125" style="15" customWidth="1"/>
+    <col min="4098" max="4098" width="14.28515625" style="15" customWidth="1"/>
     <col min="4099" max="4099" width="27" style="15" customWidth="1"/>
-    <col min="4100" max="4100" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4104" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="9.44140625" style="15" customWidth="1"/>
-    <col min="4106" max="4352" width="11.44140625" style="15"/>
-    <col min="4353" max="4353" width="9.5546875" style="15" customWidth="1"/>
-    <col min="4354" max="4354" width="14.33203125" style="15" customWidth="1"/>
+    <col min="4100" max="4100" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4104" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="9.42578125" style="15" customWidth="1"/>
+    <col min="4106" max="4352" width="11.42578125" style="15"/>
+    <col min="4353" max="4353" width="9.5703125" style="15" customWidth="1"/>
+    <col min="4354" max="4354" width="14.28515625" style="15" customWidth="1"/>
     <col min="4355" max="4355" width="27" style="15" customWidth="1"/>
-    <col min="4356" max="4356" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4360" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="9.44140625" style="15" customWidth="1"/>
-    <col min="4362" max="4608" width="11.44140625" style="15"/>
-    <col min="4609" max="4609" width="9.5546875" style="15" customWidth="1"/>
-    <col min="4610" max="4610" width="14.33203125" style="15" customWidth="1"/>
+    <col min="4356" max="4356" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4360" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="9.42578125" style="15" customWidth="1"/>
+    <col min="4362" max="4608" width="11.42578125" style="15"/>
+    <col min="4609" max="4609" width="9.5703125" style="15" customWidth="1"/>
+    <col min="4610" max="4610" width="14.28515625" style="15" customWidth="1"/>
     <col min="4611" max="4611" width="27" style="15" customWidth="1"/>
-    <col min="4612" max="4612" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4616" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="9.44140625" style="15" customWidth="1"/>
-    <col min="4618" max="4864" width="11.44140625" style="15"/>
-    <col min="4865" max="4865" width="9.5546875" style="15" customWidth="1"/>
-    <col min="4866" max="4866" width="14.33203125" style="15" customWidth="1"/>
+    <col min="4612" max="4612" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4616" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="9.42578125" style="15" customWidth="1"/>
+    <col min="4618" max="4864" width="11.42578125" style="15"/>
+    <col min="4865" max="4865" width="9.5703125" style="15" customWidth="1"/>
+    <col min="4866" max="4866" width="14.28515625" style="15" customWidth="1"/>
     <col min="4867" max="4867" width="27" style="15" customWidth="1"/>
-    <col min="4868" max="4868" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4872" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="9.44140625" style="15" customWidth="1"/>
-    <col min="4874" max="5120" width="11.44140625" style="15"/>
-    <col min="5121" max="5121" width="9.5546875" style="15" customWidth="1"/>
-    <col min="5122" max="5122" width="14.33203125" style="15" customWidth="1"/>
+    <col min="4868" max="4868" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4872" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="9.42578125" style="15" customWidth="1"/>
+    <col min="4874" max="5120" width="11.42578125" style="15"/>
+    <col min="5121" max="5121" width="9.5703125" style="15" customWidth="1"/>
+    <col min="5122" max="5122" width="14.28515625" style="15" customWidth="1"/>
     <col min="5123" max="5123" width="27" style="15" customWidth="1"/>
-    <col min="5124" max="5124" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5128" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="9.44140625" style="15" customWidth="1"/>
-    <col min="5130" max="5376" width="11.44140625" style="15"/>
-    <col min="5377" max="5377" width="9.5546875" style="15" customWidth="1"/>
-    <col min="5378" max="5378" width="14.33203125" style="15" customWidth="1"/>
+    <col min="5124" max="5124" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5128" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="9.42578125" style="15" customWidth="1"/>
+    <col min="5130" max="5376" width="11.42578125" style="15"/>
+    <col min="5377" max="5377" width="9.5703125" style="15" customWidth="1"/>
+    <col min="5378" max="5378" width="14.28515625" style="15" customWidth="1"/>
     <col min="5379" max="5379" width="27" style="15" customWidth="1"/>
-    <col min="5380" max="5380" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5384" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="9.44140625" style="15" customWidth="1"/>
-    <col min="5386" max="5632" width="11.44140625" style="15"/>
-    <col min="5633" max="5633" width="9.5546875" style="15" customWidth="1"/>
-    <col min="5634" max="5634" width="14.33203125" style="15" customWidth="1"/>
+    <col min="5380" max="5380" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5384" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="9.42578125" style="15" customWidth="1"/>
+    <col min="5386" max="5632" width="11.42578125" style="15"/>
+    <col min="5633" max="5633" width="9.5703125" style="15" customWidth="1"/>
+    <col min="5634" max="5634" width="14.28515625" style="15" customWidth="1"/>
     <col min="5635" max="5635" width="27" style="15" customWidth="1"/>
-    <col min="5636" max="5636" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5640" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="9.44140625" style="15" customWidth="1"/>
-    <col min="5642" max="5888" width="11.44140625" style="15"/>
-    <col min="5889" max="5889" width="9.5546875" style="15" customWidth="1"/>
-    <col min="5890" max="5890" width="14.33203125" style="15" customWidth="1"/>
+    <col min="5636" max="5636" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5640" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="9.42578125" style="15" customWidth="1"/>
+    <col min="5642" max="5888" width="11.42578125" style="15"/>
+    <col min="5889" max="5889" width="9.5703125" style="15" customWidth="1"/>
+    <col min="5890" max="5890" width="14.28515625" style="15" customWidth="1"/>
     <col min="5891" max="5891" width="27" style="15" customWidth="1"/>
-    <col min="5892" max="5892" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5896" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="9.44140625" style="15" customWidth="1"/>
-    <col min="5898" max="6144" width="11.44140625" style="15"/>
-    <col min="6145" max="6145" width="9.5546875" style="15" customWidth="1"/>
-    <col min="6146" max="6146" width="14.33203125" style="15" customWidth="1"/>
+    <col min="5892" max="5892" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5896" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="9.42578125" style="15" customWidth="1"/>
+    <col min="5898" max="6144" width="11.42578125" style="15"/>
+    <col min="6145" max="6145" width="9.5703125" style="15" customWidth="1"/>
+    <col min="6146" max="6146" width="14.28515625" style="15" customWidth="1"/>
     <col min="6147" max="6147" width="27" style="15" customWidth="1"/>
-    <col min="6148" max="6148" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6152" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="9.44140625" style="15" customWidth="1"/>
-    <col min="6154" max="6400" width="11.44140625" style="15"/>
-    <col min="6401" max="6401" width="9.5546875" style="15" customWidth="1"/>
-    <col min="6402" max="6402" width="14.33203125" style="15" customWidth="1"/>
+    <col min="6148" max="6148" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6152" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="9.42578125" style="15" customWidth="1"/>
+    <col min="6154" max="6400" width="11.42578125" style="15"/>
+    <col min="6401" max="6401" width="9.5703125" style="15" customWidth="1"/>
+    <col min="6402" max="6402" width="14.28515625" style="15" customWidth="1"/>
     <col min="6403" max="6403" width="27" style="15" customWidth="1"/>
-    <col min="6404" max="6404" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6408" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="9.44140625" style="15" customWidth="1"/>
-    <col min="6410" max="6656" width="11.44140625" style="15"/>
-    <col min="6657" max="6657" width="9.5546875" style="15" customWidth="1"/>
-    <col min="6658" max="6658" width="14.33203125" style="15" customWidth="1"/>
+    <col min="6404" max="6404" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6408" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="9.42578125" style="15" customWidth="1"/>
+    <col min="6410" max="6656" width="11.42578125" style="15"/>
+    <col min="6657" max="6657" width="9.5703125" style="15" customWidth="1"/>
+    <col min="6658" max="6658" width="14.28515625" style="15" customWidth="1"/>
     <col min="6659" max="6659" width="27" style="15" customWidth="1"/>
-    <col min="6660" max="6660" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6664" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="9.44140625" style="15" customWidth="1"/>
-    <col min="6666" max="6912" width="11.44140625" style="15"/>
-    <col min="6913" max="6913" width="9.5546875" style="15" customWidth="1"/>
-    <col min="6914" max="6914" width="14.33203125" style="15" customWidth="1"/>
+    <col min="6660" max="6660" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6664" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="9.42578125" style="15" customWidth="1"/>
+    <col min="6666" max="6912" width="11.42578125" style="15"/>
+    <col min="6913" max="6913" width="9.5703125" style="15" customWidth="1"/>
+    <col min="6914" max="6914" width="14.28515625" style="15" customWidth="1"/>
     <col min="6915" max="6915" width="27" style="15" customWidth="1"/>
-    <col min="6916" max="6916" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6920" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="9.44140625" style="15" customWidth="1"/>
-    <col min="6922" max="7168" width="11.44140625" style="15"/>
-    <col min="7169" max="7169" width="9.5546875" style="15" customWidth="1"/>
-    <col min="7170" max="7170" width="14.33203125" style="15" customWidth="1"/>
+    <col min="6916" max="6916" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6920" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="9.42578125" style="15" customWidth="1"/>
+    <col min="6922" max="7168" width="11.42578125" style="15"/>
+    <col min="7169" max="7169" width="9.5703125" style="15" customWidth="1"/>
+    <col min="7170" max="7170" width="14.28515625" style="15" customWidth="1"/>
     <col min="7171" max="7171" width="27" style="15" customWidth="1"/>
-    <col min="7172" max="7172" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7176" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="9.44140625" style="15" customWidth="1"/>
-    <col min="7178" max="7424" width="11.44140625" style="15"/>
-    <col min="7425" max="7425" width="9.5546875" style="15" customWidth="1"/>
-    <col min="7426" max="7426" width="14.33203125" style="15" customWidth="1"/>
+    <col min="7172" max="7172" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7176" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="9.42578125" style="15" customWidth="1"/>
+    <col min="7178" max="7424" width="11.42578125" style="15"/>
+    <col min="7425" max="7425" width="9.5703125" style="15" customWidth="1"/>
+    <col min="7426" max="7426" width="14.28515625" style="15" customWidth="1"/>
     <col min="7427" max="7427" width="27" style="15" customWidth="1"/>
-    <col min="7428" max="7428" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7432" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="9.44140625" style="15" customWidth="1"/>
-    <col min="7434" max="7680" width="11.44140625" style="15"/>
-    <col min="7681" max="7681" width="9.5546875" style="15" customWidth="1"/>
-    <col min="7682" max="7682" width="14.33203125" style="15" customWidth="1"/>
+    <col min="7428" max="7428" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7432" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="9.42578125" style="15" customWidth="1"/>
+    <col min="7434" max="7680" width="11.42578125" style="15"/>
+    <col min="7681" max="7681" width="9.5703125" style="15" customWidth="1"/>
+    <col min="7682" max="7682" width="14.28515625" style="15" customWidth="1"/>
     <col min="7683" max="7683" width="27" style="15" customWidth="1"/>
-    <col min="7684" max="7684" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7688" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="9.44140625" style="15" customWidth="1"/>
-    <col min="7690" max="7936" width="11.44140625" style="15"/>
-    <col min="7937" max="7937" width="9.5546875" style="15" customWidth="1"/>
-    <col min="7938" max="7938" width="14.33203125" style="15" customWidth="1"/>
+    <col min="7684" max="7684" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7688" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="9.42578125" style="15" customWidth="1"/>
+    <col min="7690" max="7936" width="11.42578125" style="15"/>
+    <col min="7937" max="7937" width="9.5703125" style="15" customWidth="1"/>
+    <col min="7938" max="7938" width="14.28515625" style="15" customWidth="1"/>
     <col min="7939" max="7939" width="27" style="15" customWidth="1"/>
-    <col min="7940" max="7940" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7944" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="9.44140625" style="15" customWidth="1"/>
-    <col min="7946" max="8192" width="11.44140625" style="15"/>
-    <col min="8193" max="8193" width="9.5546875" style="15" customWidth="1"/>
-    <col min="8194" max="8194" width="14.33203125" style="15" customWidth="1"/>
+    <col min="7940" max="7940" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7944" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="9.42578125" style="15" customWidth="1"/>
+    <col min="7946" max="8192" width="11.42578125" style="15"/>
+    <col min="8193" max="8193" width="9.5703125" style="15" customWidth="1"/>
+    <col min="8194" max="8194" width="14.28515625" style="15" customWidth="1"/>
     <col min="8195" max="8195" width="27" style="15" customWidth="1"/>
-    <col min="8196" max="8196" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8200" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="9.44140625" style="15" customWidth="1"/>
-    <col min="8202" max="8448" width="11.44140625" style="15"/>
-    <col min="8449" max="8449" width="9.5546875" style="15" customWidth="1"/>
-    <col min="8450" max="8450" width="14.33203125" style="15" customWidth="1"/>
+    <col min="8196" max="8196" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8200" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="9.42578125" style="15" customWidth="1"/>
+    <col min="8202" max="8448" width="11.42578125" style="15"/>
+    <col min="8449" max="8449" width="9.5703125" style="15" customWidth="1"/>
+    <col min="8450" max="8450" width="14.28515625" style="15" customWidth="1"/>
     <col min="8451" max="8451" width="27" style="15" customWidth="1"/>
-    <col min="8452" max="8452" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8456" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="9.44140625" style="15" customWidth="1"/>
-    <col min="8458" max="8704" width="11.44140625" style="15"/>
-    <col min="8705" max="8705" width="9.5546875" style="15" customWidth="1"/>
-    <col min="8706" max="8706" width="14.33203125" style="15" customWidth="1"/>
+    <col min="8452" max="8452" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8456" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="9.42578125" style="15" customWidth="1"/>
+    <col min="8458" max="8704" width="11.42578125" style="15"/>
+    <col min="8705" max="8705" width="9.5703125" style="15" customWidth="1"/>
+    <col min="8706" max="8706" width="14.28515625" style="15" customWidth="1"/>
     <col min="8707" max="8707" width="27" style="15" customWidth="1"/>
-    <col min="8708" max="8708" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8712" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="9.44140625" style="15" customWidth="1"/>
-    <col min="8714" max="8960" width="11.44140625" style="15"/>
-    <col min="8961" max="8961" width="9.5546875" style="15" customWidth="1"/>
-    <col min="8962" max="8962" width="14.33203125" style="15" customWidth="1"/>
+    <col min="8708" max="8708" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8712" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="9.42578125" style="15" customWidth="1"/>
+    <col min="8714" max="8960" width="11.42578125" style="15"/>
+    <col min="8961" max="8961" width="9.5703125" style="15" customWidth="1"/>
+    <col min="8962" max="8962" width="14.28515625" style="15" customWidth="1"/>
     <col min="8963" max="8963" width="27" style="15" customWidth="1"/>
-    <col min="8964" max="8964" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8968" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="9.44140625" style="15" customWidth="1"/>
-    <col min="8970" max="9216" width="11.44140625" style="15"/>
-    <col min="9217" max="9217" width="9.5546875" style="15" customWidth="1"/>
-    <col min="9218" max="9218" width="14.33203125" style="15" customWidth="1"/>
+    <col min="8964" max="8964" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8968" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="9.42578125" style="15" customWidth="1"/>
+    <col min="8970" max="9216" width="11.42578125" style="15"/>
+    <col min="9217" max="9217" width="9.5703125" style="15" customWidth="1"/>
+    <col min="9218" max="9218" width="14.28515625" style="15" customWidth="1"/>
     <col min="9219" max="9219" width="27" style="15" customWidth="1"/>
-    <col min="9220" max="9220" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9224" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="9.44140625" style="15" customWidth="1"/>
-    <col min="9226" max="9472" width="11.44140625" style="15"/>
-    <col min="9473" max="9473" width="9.5546875" style="15" customWidth="1"/>
-    <col min="9474" max="9474" width="14.33203125" style="15" customWidth="1"/>
+    <col min="9220" max="9220" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9224" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="9.42578125" style="15" customWidth="1"/>
+    <col min="9226" max="9472" width="11.42578125" style="15"/>
+    <col min="9473" max="9473" width="9.5703125" style="15" customWidth="1"/>
+    <col min="9474" max="9474" width="14.28515625" style="15" customWidth="1"/>
     <col min="9475" max="9475" width="27" style="15" customWidth="1"/>
-    <col min="9476" max="9476" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9480" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="9.44140625" style="15" customWidth="1"/>
-    <col min="9482" max="9728" width="11.44140625" style="15"/>
-    <col min="9729" max="9729" width="9.5546875" style="15" customWidth="1"/>
-    <col min="9730" max="9730" width="14.33203125" style="15" customWidth="1"/>
+    <col min="9476" max="9476" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9480" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="9.42578125" style="15" customWidth="1"/>
+    <col min="9482" max="9728" width="11.42578125" style="15"/>
+    <col min="9729" max="9729" width="9.5703125" style="15" customWidth="1"/>
+    <col min="9730" max="9730" width="14.28515625" style="15" customWidth="1"/>
     <col min="9731" max="9731" width="27" style="15" customWidth="1"/>
-    <col min="9732" max="9732" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9736" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="9.44140625" style="15" customWidth="1"/>
-    <col min="9738" max="9984" width="11.44140625" style="15"/>
-    <col min="9985" max="9985" width="9.5546875" style="15" customWidth="1"/>
-    <col min="9986" max="9986" width="14.33203125" style="15" customWidth="1"/>
+    <col min="9732" max="9732" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9736" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="9.42578125" style="15" customWidth="1"/>
+    <col min="9738" max="9984" width="11.42578125" style="15"/>
+    <col min="9985" max="9985" width="9.5703125" style="15" customWidth="1"/>
+    <col min="9986" max="9986" width="14.28515625" style="15" customWidth="1"/>
     <col min="9987" max="9987" width="27" style="15" customWidth="1"/>
-    <col min="9988" max="9988" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9992" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="9.44140625" style="15" customWidth="1"/>
-    <col min="9994" max="10240" width="11.44140625" style="15"/>
-    <col min="10241" max="10241" width="9.5546875" style="15" customWidth="1"/>
-    <col min="10242" max="10242" width="14.33203125" style="15" customWidth="1"/>
+    <col min="9988" max="9988" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9992" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="9.42578125" style="15" customWidth="1"/>
+    <col min="9994" max="10240" width="11.42578125" style="15"/>
+    <col min="10241" max="10241" width="9.5703125" style="15" customWidth="1"/>
+    <col min="10242" max="10242" width="14.28515625" style="15" customWidth="1"/>
     <col min="10243" max="10243" width="27" style="15" customWidth="1"/>
-    <col min="10244" max="10244" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10248" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="9.44140625" style="15" customWidth="1"/>
-    <col min="10250" max="10496" width="11.44140625" style="15"/>
-    <col min="10497" max="10497" width="9.5546875" style="15" customWidth="1"/>
-    <col min="10498" max="10498" width="14.33203125" style="15" customWidth="1"/>
+    <col min="10244" max="10244" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10248" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="9.42578125" style="15" customWidth="1"/>
+    <col min="10250" max="10496" width="11.42578125" style="15"/>
+    <col min="10497" max="10497" width="9.5703125" style="15" customWidth="1"/>
+    <col min="10498" max="10498" width="14.28515625" style="15" customWidth="1"/>
     <col min="10499" max="10499" width="27" style="15" customWidth="1"/>
-    <col min="10500" max="10500" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10504" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="9.44140625" style="15" customWidth="1"/>
-    <col min="10506" max="10752" width="11.44140625" style="15"/>
-    <col min="10753" max="10753" width="9.5546875" style="15" customWidth="1"/>
-    <col min="10754" max="10754" width="14.33203125" style="15" customWidth="1"/>
+    <col min="10500" max="10500" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10504" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="9.42578125" style="15" customWidth="1"/>
+    <col min="10506" max="10752" width="11.42578125" style="15"/>
+    <col min="10753" max="10753" width="9.5703125" style="15" customWidth="1"/>
+    <col min="10754" max="10754" width="14.28515625" style="15" customWidth="1"/>
     <col min="10755" max="10755" width="27" style="15" customWidth="1"/>
-    <col min="10756" max="10756" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10760" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="9.44140625" style="15" customWidth="1"/>
-    <col min="10762" max="11008" width="11.44140625" style="15"/>
-    <col min="11009" max="11009" width="9.5546875" style="15" customWidth="1"/>
-    <col min="11010" max="11010" width="14.33203125" style="15" customWidth="1"/>
+    <col min="10756" max="10756" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10760" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="9.42578125" style="15" customWidth="1"/>
+    <col min="10762" max="11008" width="11.42578125" style="15"/>
+    <col min="11009" max="11009" width="9.5703125" style="15" customWidth="1"/>
+    <col min="11010" max="11010" width="14.28515625" style="15" customWidth="1"/>
     <col min="11011" max="11011" width="27" style="15" customWidth="1"/>
-    <col min="11012" max="11012" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11016" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="9.44140625" style="15" customWidth="1"/>
-    <col min="11018" max="11264" width="11.44140625" style="15"/>
-    <col min="11265" max="11265" width="9.5546875" style="15" customWidth="1"/>
-    <col min="11266" max="11266" width="14.33203125" style="15" customWidth="1"/>
+    <col min="11012" max="11012" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11016" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="9.42578125" style="15" customWidth="1"/>
+    <col min="11018" max="11264" width="11.42578125" style="15"/>
+    <col min="11265" max="11265" width="9.5703125" style="15" customWidth="1"/>
+    <col min="11266" max="11266" width="14.28515625" style="15" customWidth="1"/>
     <col min="11267" max="11267" width="27" style="15" customWidth="1"/>
-    <col min="11268" max="11268" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11272" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="9.44140625" style="15" customWidth="1"/>
-    <col min="11274" max="11520" width="11.44140625" style="15"/>
-    <col min="11521" max="11521" width="9.5546875" style="15" customWidth="1"/>
-    <col min="11522" max="11522" width="14.33203125" style="15" customWidth="1"/>
+    <col min="11268" max="11268" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11272" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="9.42578125" style="15" customWidth="1"/>
+    <col min="11274" max="11520" width="11.42578125" style="15"/>
+    <col min="11521" max="11521" width="9.5703125" style="15" customWidth="1"/>
+    <col min="11522" max="11522" width="14.28515625" style="15" customWidth="1"/>
     <col min="11523" max="11523" width="27" style="15" customWidth="1"/>
-    <col min="11524" max="11524" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11528" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="9.44140625" style="15" customWidth="1"/>
-    <col min="11530" max="11776" width="11.44140625" style="15"/>
-    <col min="11777" max="11777" width="9.5546875" style="15" customWidth="1"/>
-    <col min="11778" max="11778" width="14.33203125" style="15" customWidth="1"/>
+    <col min="11524" max="11524" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11528" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="9.42578125" style="15" customWidth="1"/>
+    <col min="11530" max="11776" width="11.42578125" style="15"/>
+    <col min="11777" max="11777" width="9.5703125" style="15" customWidth="1"/>
+    <col min="11778" max="11778" width="14.28515625" style="15" customWidth="1"/>
     <col min="11779" max="11779" width="27" style="15" customWidth="1"/>
-    <col min="11780" max="11780" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11784" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="9.44140625" style="15" customWidth="1"/>
-    <col min="11786" max="12032" width="11.44140625" style="15"/>
-    <col min="12033" max="12033" width="9.5546875" style="15" customWidth="1"/>
-    <col min="12034" max="12034" width="14.33203125" style="15" customWidth="1"/>
+    <col min="11780" max="11780" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11784" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="9.42578125" style="15" customWidth="1"/>
+    <col min="11786" max="12032" width="11.42578125" style="15"/>
+    <col min="12033" max="12033" width="9.5703125" style="15" customWidth="1"/>
+    <col min="12034" max="12034" width="14.28515625" style="15" customWidth="1"/>
     <col min="12035" max="12035" width="27" style="15" customWidth="1"/>
-    <col min="12036" max="12036" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12040" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="9.44140625" style="15" customWidth="1"/>
-    <col min="12042" max="12288" width="11.44140625" style="15"/>
-    <col min="12289" max="12289" width="9.5546875" style="15" customWidth="1"/>
-    <col min="12290" max="12290" width="14.33203125" style="15" customWidth="1"/>
+    <col min="12036" max="12036" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12040" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="9.42578125" style="15" customWidth="1"/>
+    <col min="12042" max="12288" width="11.42578125" style="15"/>
+    <col min="12289" max="12289" width="9.5703125" style="15" customWidth="1"/>
+    <col min="12290" max="12290" width="14.28515625" style="15" customWidth="1"/>
     <col min="12291" max="12291" width="27" style="15" customWidth="1"/>
-    <col min="12292" max="12292" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12296" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="9.44140625" style="15" customWidth="1"/>
-    <col min="12298" max="12544" width="11.44140625" style="15"/>
-    <col min="12545" max="12545" width="9.5546875" style="15" customWidth="1"/>
-    <col min="12546" max="12546" width="14.33203125" style="15" customWidth="1"/>
+    <col min="12292" max="12292" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12296" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="9.42578125" style="15" customWidth="1"/>
+    <col min="12298" max="12544" width="11.42578125" style="15"/>
+    <col min="12545" max="12545" width="9.5703125" style="15" customWidth="1"/>
+    <col min="12546" max="12546" width="14.28515625" style="15" customWidth="1"/>
     <col min="12547" max="12547" width="27" style="15" customWidth="1"/>
-    <col min="12548" max="12548" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12552" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="9.44140625" style="15" customWidth="1"/>
-    <col min="12554" max="12800" width="11.44140625" style="15"/>
-    <col min="12801" max="12801" width="9.5546875" style="15" customWidth="1"/>
-    <col min="12802" max="12802" width="14.33203125" style="15" customWidth="1"/>
+    <col min="12548" max="12548" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12552" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="9.42578125" style="15" customWidth="1"/>
+    <col min="12554" max="12800" width="11.42578125" style="15"/>
+    <col min="12801" max="12801" width="9.5703125" style="15" customWidth="1"/>
+    <col min="12802" max="12802" width="14.28515625" style="15" customWidth="1"/>
     <col min="12803" max="12803" width="27" style="15" customWidth="1"/>
-    <col min="12804" max="12804" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12808" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="9.44140625" style="15" customWidth="1"/>
-    <col min="12810" max="13056" width="11.44140625" style="15"/>
-    <col min="13057" max="13057" width="9.5546875" style="15" customWidth="1"/>
-    <col min="13058" max="13058" width="14.33203125" style="15" customWidth="1"/>
+    <col min="12804" max="12804" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12808" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="9.42578125" style="15" customWidth="1"/>
+    <col min="12810" max="13056" width="11.42578125" style="15"/>
+    <col min="13057" max="13057" width="9.5703125" style="15" customWidth="1"/>
+    <col min="13058" max="13058" width="14.28515625" style="15" customWidth="1"/>
     <col min="13059" max="13059" width="27" style="15" customWidth="1"/>
-    <col min="13060" max="13060" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13064" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="9.44140625" style="15" customWidth="1"/>
-    <col min="13066" max="13312" width="11.44140625" style="15"/>
-    <col min="13313" max="13313" width="9.5546875" style="15" customWidth="1"/>
-    <col min="13314" max="13314" width="14.33203125" style="15" customWidth="1"/>
+    <col min="13060" max="13060" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13064" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="9.42578125" style="15" customWidth="1"/>
+    <col min="13066" max="13312" width="11.42578125" style="15"/>
+    <col min="13313" max="13313" width="9.5703125" style="15" customWidth="1"/>
+    <col min="13314" max="13314" width="14.28515625" style="15" customWidth="1"/>
     <col min="13315" max="13315" width="27" style="15" customWidth="1"/>
-    <col min="13316" max="13316" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13320" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="9.44140625" style="15" customWidth="1"/>
-    <col min="13322" max="13568" width="11.44140625" style="15"/>
-    <col min="13569" max="13569" width="9.5546875" style="15" customWidth="1"/>
-    <col min="13570" max="13570" width="14.33203125" style="15" customWidth="1"/>
+    <col min="13316" max="13316" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13320" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="9.42578125" style="15" customWidth="1"/>
+    <col min="13322" max="13568" width="11.42578125" style="15"/>
+    <col min="13569" max="13569" width="9.5703125" style="15" customWidth="1"/>
+    <col min="13570" max="13570" width="14.28515625" style="15" customWidth="1"/>
     <col min="13571" max="13571" width="27" style="15" customWidth="1"/>
-    <col min="13572" max="13572" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13576" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="9.44140625" style="15" customWidth="1"/>
-    <col min="13578" max="13824" width="11.44140625" style="15"/>
-    <col min="13825" max="13825" width="9.5546875" style="15" customWidth="1"/>
-    <col min="13826" max="13826" width="14.33203125" style="15" customWidth="1"/>
+    <col min="13572" max="13572" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13576" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="9.42578125" style="15" customWidth="1"/>
+    <col min="13578" max="13824" width="11.42578125" style="15"/>
+    <col min="13825" max="13825" width="9.5703125" style="15" customWidth="1"/>
+    <col min="13826" max="13826" width="14.28515625" style="15" customWidth="1"/>
     <col min="13827" max="13827" width="27" style="15" customWidth="1"/>
-    <col min="13828" max="13828" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13832" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="9.44140625" style="15" customWidth="1"/>
-    <col min="13834" max="14080" width="11.44140625" style="15"/>
-    <col min="14081" max="14081" width="9.5546875" style="15" customWidth="1"/>
-    <col min="14082" max="14082" width="14.33203125" style="15" customWidth="1"/>
+    <col min="13828" max="13828" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13832" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="9.42578125" style="15" customWidth="1"/>
+    <col min="13834" max="14080" width="11.42578125" style="15"/>
+    <col min="14081" max="14081" width="9.5703125" style="15" customWidth="1"/>
+    <col min="14082" max="14082" width="14.28515625" style="15" customWidth="1"/>
     <col min="14083" max="14083" width="27" style="15" customWidth="1"/>
-    <col min="14084" max="14084" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14088" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="9.44140625" style="15" customWidth="1"/>
-    <col min="14090" max="14336" width="11.44140625" style="15"/>
-    <col min="14337" max="14337" width="9.5546875" style="15" customWidth="1"/>
-    <col min="14338" max="14338" width="14.33203125" style="15" customWidth="1"/>
+    <col min="14084" max="14084" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14088" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="9.42578125" style="15" customWidth="1"/>
+    <col min="14090" max="14336" width="11.42578125" style="15"/>
+    <col min="14337" max="14337" width="9.5703125" style="15" customWidth="1"/>
+    <col min="14338" max="14338" width="14.28515625" style="15" customWidth="1"/>
     <col min="14339" max="14339" width="27" style="15" customWidth="1"/>
-    <col min="14340" max="14340" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14344" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="9.44140625" style="15" customWidth="1"/>
-    <col min="14346" max="14592" width="11.44140625" style="15"/>
-    <col min="14593" max="14593" width="9.5546875" style="15" customWidth="1"/>
-    <col min="14594" max="14594" width="14.33203125" style="15" customWidth="1"/>
+    <col min="14340" max="14340" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14344" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="9.42578125" style="15" customWidth="1"/>
+    <col min="14346" max="14592" width="11.42578125" style="15"/>
+    <col min="14593" max="14593" width="9.5703125" style="15" customWidth="1"/>
+    <col min="14594" max="14594" width="14.28515625" style="15" customWidth="1"/>
     <col min="14595" max="14595" width="27" style="15" customWidth="1"/>
-    <col min="14596" max="14596" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14600" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="9.44140625" style="15" customWidth="1"/>
-    <col min="14602" max="14848" width="11.44140625" style="15"/>
-    <col min="14849" max="14849" width="9.5546875" style="15" customWidth="1"/>
-    <col min="14850" max="14850" width="14.33203125" style="15" customWidth="1"/>
+    <col min="14596" max="14596" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14600" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="9.42578125" style="15" customWidth="1"/>
+    <col min="14602" max="14848" width="11.42578125" style="15"/>
+    <col min="14849" max="14849" width="9.5703125" style="15" customWidth="1"/>
+    <col min="14850" max="14850" width="14.28515625" style="15" customWidth="1"/>
     <col min="14851" max="14851" width="27" style="15" customWidth="1"/>
-    <col min="14852" max="14852" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14856" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="9.44140625" style="15" customWidth="1"/>
-    <col min="14858" max="15104" width="11.44140625" style="15"/>
-    <col min="15105" max="15105" width="9.5546875" style="15" customWidth="1"/>
-    <col min="15106" max="15106" width="14.33203125" style="15" customWidth="1"/>
+    <col min="14852" max="14852" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14856" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="9.42578125" style="15" customWidth="1"/>
+    <col min="14858" max="15104" width="11.42578125" style="15"/>
+    <col min="15105" max="15105" width="9.5703125" style="15" customWidth="1"/>
+    <col min="15106" max="15106" width="14.28515625" style="15" customWidth="1"/>
     <col min="15107" max="15107" width="27" style="15" customWidth="1"/>
-    <col min="15108" max="15108" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15112" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="9.44140625" style="15" customWidth="1"/>
-    <col min="15114" max="15360" width="11.44140625" style="15"/>
-    <col min="15361" max="15361" width="9.5546875" style="15" customWidth="1"/>
-    <col min="15362" max="15362" width="14.33203125" style="15" customWidth="1"/>
+    <col min="15108" max="15108" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15112" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="9.42578125" style="15" customWidth="1"/>
+    <col min="15114" max="15360" width="11.42578125" style="15"/>
+    <col min="15361" max="15361" width="9.5703125" style="15" customWidth="1"/>
+    <col min="15362" max="15362" width="14.28515625" style="15" customWidth="1"/>
     <col min="15363" max="15363" width="27" style="15" customWidth="1"/>
-    <col min="15364" max="15364" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15368" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="9.44140625" style="15" customWidth="1"/>
-    <col min="15370" max="15616" width="11.44140625" style="15"/>
-    <col min="15617" max="15617" width="9.5546875" style="15" customWidth="1"/>
-    <col min="15618" max="15618" width="14.33203125" style="15" customWidth="1"/>
+    <col min="15364" max="15364" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15368" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="9.42578125" style="15" customWidth="1"/>
+    <col min="15370" max="15616" width="11.42578125" style="15"/>
+    <col min="15617" max="15617" width="9.5703125" style="15" customWidth="1"/>
+    <col min="15618" max="15618" width="14.28515625" style="15" customWidth="1"/>
     <col min="15619" max="15619" width="27" style="15" customWidth="1"/>
-    <col min="15620" max="15620" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15624" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="9.44140625" style="15" customWidth="1"/>
-    <col min="15626" max="15872" width="11.44140625" style="15"/>
-    <col min="15873" max="15873" width="9.5546875" style="15" customWidth="1"/>
-    <col min="15874" max="15874" width="14.33203125" style="15" customWidth="1"/>
+    <col min="15620" max="15620" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15624" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="9.42578125" style="15" customWidth="1"/>
+    <col min="15626" max="15872" width="11.42578125" style="15"/>
+    <col min="15873" max="15873" width="9.5703125" style="15" customWidth="1"/>
+    <col min="15874" max="15874" width="14.28515625" style="15" customWidth="1"/>
     <col min="15875" max="15875" width="27" style="15" customWidth="1"/>
-    <col min="15876" max="15876" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15880" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="9.44140625" style="15" customWidth="1"/>
-    <col min="15882" max="16128" width="11.44140625" style="15"/>
-    <col min="16129" max="16129" width="9.5546875" style="15" customWidth="1"/>
-    <col min="16130" max="16130" width="14.33203125" style="15" customWidth="1"/>
+    <col min="15876" max="15876" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15880" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="9.42578125" style="15" customWidth="1"/>
+    <col min="15882" max="16128" width="11.42578125" style="15"/>
+    <col min="16129" max="16129" width="9.5703125" style="15" customWidth="1"/>
+    <col min="16130" max="16130" width="14.28515625" style="15" customWidth="1"/>
     <col min="16131" max="16131" width="27" style="15" customWidth="1"/>
-    <col min="16132" max="16132" width="6.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="15.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="15.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16136" width="15.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="9.44140625" style="15" customWidth="1"/>
-    <col min="16138" max="16384" width="11.44140625" style="15"/>
+    <col min="16132" max="16132" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="15.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="15.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16136" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="9.42578125" style="15" customWidth="1"/>
+    <col min="16138" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="95" t="s">
         <v>9</v>
       </c>
@@ -5866,7 +5866,7 @@
       <c r="H1" s="95"/>
       <c r="I1" s="95"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="96" t="s">
         <v>1335</v>
       </c>
@@ -5879,7 +5879,7 @@
       <c r="H2" s="96"/>
       <c r="I2" s="96"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
@@ -5888,7 +5888,7 @@
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="14.25" customHeight="1">
       <c r="A4" s="97" t="s">
         <v>10</v>
       </c>
@@ -5911,7 +5911,7 @@
       <c r="H4" s="106"/>
       <c r="I4" s="106"/>
     </row>
-    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="14.25">
       <c r="A5" s="98"/>
       <c r="B5" s="100"/>
       <c r="C5" s="26" t="s">
@@ -5932,7 +5932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="35" customFormat="1">
       <c r="A6" s="30">
         <v>1</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="35" customFormat="1">
       <c r="A7" s="36"/>
       <c r="B7" s="37"/>
       <c r="C7" s="38"/>
@@ -5972,7 +5972,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="39"/>
     </row>
-    <row r="8" spans="1:15" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="35" customFormat="1">
       <c r="A8" s="40" t="s">
         <v>22</v>
       </c>
@@ -5987,7 +5987,7 @@
       <c r="H8" s="39"/>
       <c r="I8" s="39"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="15" t="s">
         <v>24</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="N9" s="46"/>
       <c r="O9" s="46"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="15" t="s">
         <v>27</v>
       </c>
@@ -6055,7 +6055,7 @@
       <c r="N10" s="46"/>
       <c r="O10" s="46"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="15" t="s">
         <v>30</v>
       </c>
@@ -6089,7 +6089,7 @@
       <c r="N11" s="46"/>
       <c r="O11" s="46"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="15" t="s">
         <v>33</v>
       </c>
@@ -6123,7 +6123,7 @@
       <c r="N12" s="46"/>
       <c r="O12" s="46"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="15" t="s">
         <v>36</v>
       </c>
@@ -6157,7 +6157,7 @@
       <c r="N13" s="46"/>
       <c r="O13" s="46"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="15" t="s">
         <v>40</v>
       </c>
@@ -6191,7 +6191,7 @@
       <c r="N14" s="46"/>
       <c r="O14" s="46"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="15" t="s">
         <v>43</v>
       </c>
@@ -6225,7 +6225,7 @@
       <c r="N15" s="46"/>
       <c r="O15" s="46"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="15" t="s">
         <v>46</v>
       </c>
@@ -6259,7 +6259,7 @@
       <c r="N16" s="46"/>
       <c r="O16" s="46"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="15" t="s">
         <v>49</v>
       </c>
@@ -6293,7 +6293,7 @@
       <c r="N17" s="46"/>
       <c r="O17" s="46"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="15" t="s">
         <v>52</v>
       </c>
@@ -6327,7 +6327,7 @@
       <c r="N18" s="46"/>
       <c r="O18" s="46"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="15" t="s">
         <v>55</v>
       </c>
@@ -6361,7 +6361,7 @@
       <c r="N19" s="46"/>
       <c r="O19" s="46"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="15" t="s">
         <v>58</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="N20" s="46"/>
       <c r="O20" s="46"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="15" t="s">
         <v>61</v>
       </c>
@@ -6429,7 +6429,7 @@
       <c r="N21" s="46"/>
       <c r="O21" s="46"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="15" t="s">
         <v>64</v>
       </c>
@@ -6463,7 +6463,7 @@
       <c r="N22" s="46"/>
       <c r="O22" s="46"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="15" t="s">
         <v>67</v>
       </c>
@@ -6497,7 +6497,7 @@
       <c r="N23" s="46"/>
       <c r="O23" s="46"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="B24" s="42"/>
       <c r="C24" s="47" t="s">
         <v>70</v>
@@ -6519,7 +6519,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="51" t="s">
         <v>71</v>
       </c>
@@ -6532,7 +6532,7 @@
       <c r="H25" s="55"/>
       <c r="I25" s="55"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="15" t="s">
         <v>73</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="51" t="s">
         <v>76</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="H27" s="55"/>
       <c r="I27" s="55"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="57" t="s">
         <v>78</v>
       </c>
@@ -6589,7 +6589,7 @@
       <c r="H28" s="55"/>
       <c r="I28" s="55"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="15" t="s">
         <v>80</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="15" t="s">
         <v>83</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" s="15" t="s">
         <v>86</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="15" t="s">
         <v>89</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="15" t="s">
         <v>93</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="15" t="s">
         <v>96</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="15" t="s">
         <v>99</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="15" t="s">
         <v>102</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="15" t="s">
         <v>105</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="15" t="s">
         <v>108</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="57" t="s">
         <v>111</v>
       </c>
@@ -6894,7 +6894,7 @@
       <c r="H39" s="45"/>
       <c r="I39" s="45"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="15" t="s">
         <v>113</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="15" t="s">
         <v>116</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="15" t="s">
         <v>119</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="15" t="s">
         <v>122</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="15" t="s">
         <v>125</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="15" t="s">
         <v>128</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="15" t="s">
         <v>131</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="57" t="s">
         <v>134</v>
       </c>
@@ -7112,7 +7112,7 @@
       <c r="H47" s="45"/>
       <c r="I47" s="45"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="15" t="s">
         <v>136</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="15" t="s">
         <v>139</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="15" t="s">
         <v>142</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="15" t="s">
         <v>145</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="15" t="s">
         <v>148</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="15" t="s">
         <v>151</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="15" t="s">
         <v>154</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="15" t="s">
         <v>157</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="15" t="s">
         <v>160</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="15" t="s">
         <v>163</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="15" t="s">
         <v>166</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="57" t="s">
         <v>169</v>
       </c>
@@ -7446,7 +7446,7 @@
       <c r="H59" s="45"/>
       <c r="I59" s="45"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="15" t="s">
         <v>171</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="15" t="s">
         <v>174</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="15" t="s">
         <v>177</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="15" t="s">
         <v>180</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="15" t="s">
         <v>183</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="15" t="s">
         <v>186</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="15" t="s">
         <v>189</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="15" t="s">
         <v>192</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="15" t="s">
         <v>195</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="15" t="s">
         <v>198</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="15" t="s">
         <v>201</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="15" t="s">
         <v>204</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="15" t="s">
         <v>207</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="15" t="s">
         <v>210</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="15" t="s">
         <v>213</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="15" t="s">
         <v>216</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="15" t="s">
         <v>219</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="B77" s="42"/>
       <c r="C77" s="47" t="s">
         <v>70</v>
@@ -7961,7 +7961,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="51" t="s">
         <v>222</v>
       </c>
@@ -7974,7 +7974,7 @@
       <c r="H78" s="55"/>
       <c r="I78" s="55"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="15" t="s">
         <v>224</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="15" t="s">
         <v>227</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="C81" s="47" t="s">
         <v>70</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="51" t="s">
         <v>230</v>
       </c>
@@ -8066,7 +8066,7 @@
       <c r="H82" s="55"/>
       <c r="I82" s="55"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="51" t="s">
         <v>232</v>
       </c>
@@ -8081,7 +8081,7 @@
       <c r="H83" s="55"/>
       <c r="I83" s="55"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="15" t="s">
         <v>234</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="15" t="s">
         <v>237</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="15" t="s">
         <v>240</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="15" t="s">
         <v>243</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="15" t="s">
         <v>246</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="15" t="s">
         <v>249</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="15" t="s">
         <v>252</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="15" t="s">
         <v>255</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="15" t="s">
         <v>258</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="15" t="s">
         <v>261</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="15" t="s">
         <v>264</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="15" t="s">
         <v>267</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="15" t="s">
         <v>270</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10">
       <c r="A97" s="15" t="s">
         <v>273</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10">
       <c r="A98" s="15" t="s">
         <v>276</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10">
       <c r="A99" s="51" t="s">
         <v>279</v>
       </c>
@@ -8531,7 +8531,7 @@
       <c r="H99" s="55"/>
       <c r="I99" s="55"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10">
       <c r="A100" s="15" t="s">
         <v>281</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10">
       <c r="A101" s="15" t="s">
         <v>284</v>
       </c>
@@ -8590,7 +8590,7 @@
       </c>
       <c r="J101" s="46"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10">
       <c r="A102" s="15" t="s">
         <v>287</v>
       </c>
@@ -8620,7 +8620,7 @@
       </c>
       <c r="J102" s="46"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10">
       <c r="A103" s="15" t="s">
         <v>290</v>
       </c>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="J103" s="46"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10">
       <c r="A104" s="58" t="s">
         <v>293</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10">
       <c r="A105" s="15" t="s">
         <v>296</v>
       </c>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="J105" s="46"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10">
       <c r="A106" s="15" t="s">
         <v>299</v>
       </c>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="J106" s="46"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10">
       <c r="A107" s="15" t="s">
         <v>302</v>
       </c>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="J107" s="46"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10">
       <c r="A108" s="15" t="s">
         <v>305</v>
       </c>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="J108" s="46"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10">
       <c r="A109" s="15" t="s">
         <v>308</v>
       </c>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="J109" s="46"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10">
       <c r="A110" s="15" t="s">
         <v>311</v>
       </c>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="J110" s="46"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10">
       <c r="A111" s="51" t="s">
         <v>314</v>
       </c>
@@ -8874,7 +8874,7 @@
       <c r="H111" s="55"/>
       <c r="I111" s="55"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10">
       <c r="A112" s="15" t="s">
         <v>316</v>
       </c>
@@ -8904,7 +8904,7 @@
       </c>
       <c r="J112" s="46"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" s="15" t="s">
         <v>319</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11">
       <c r="A114" s="15" t="s">
         <v>322</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11">
       <c r="A115" s="15" t="s">
         <v>325</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11">
       <c r="A116" s="15" t="s">
         <v>328</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11">
       <c r="A117" s="15" t="s">
         <v>331</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11">
       <c r="A118" s="15" t="s">
         <v>334</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" s="15" t="s">
         <v>337</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" s="51" t="s">
         <v>340</v>
       </c>
@@ -9122,7 +9122,7 @@
       <c r="H120" s="55"/>
       <c r="I120" s="55"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" s="15" t="s">
         <v>342</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" s="15" t="s">
         <v>345</v>
       </c>
@@ -9182,7 +9182,7 @@
       <c r="J122" s="60"/>
       <c r="K122" s="46"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123" s="15" t="s">
         <v>348</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" s="15" t="s">
         <v>351</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" s="15" t="s">
         <v>354</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" s="15" t="s">
         <v>357</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" s="15" t="s">
         <v>360</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" s="51" t="s">
         <v>363</v>
       </c>
@@ -9342,7 +9342,7 @@
       <c r="H128" s="55"/>
       <c r="I128" s="55"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="15" t="s">
         <v>365</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="15" t="s">
         <v>368</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="15" t="s">
         <v>371</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="15" t="s">
         <v>374</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="15" t="s">
         <v>377</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="15" t="s">
         <v>380</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="15" t="s">
         <v>383</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="15" t="s">
         <v>386</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="15" t="s">
         <v>389</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="15" t="s">
         <v>392</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="15" t="s">
         <v>395</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="15" t="s">
         <v>398</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="C141" s="47" t="s">
         <v>70</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="51" t="s">
         <v>401</v>
       </c>
@@ -9724,7 +9724,7 @@
       <c r="H142" s="55"/>
       <c r="I142" s="55"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="51" t="s">
         <v>403</v>
       </c>
@@ -9739,7 +9739,7 @@
       <c r="H143" s="55"/>
       <c r="I143" s="55"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="15" t="s">
         <v>405</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="15" t="s">
         <v>408</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="15" t="s">
         <v>411</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="15" t="s">
         <v>414</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="15" t="s">
         <v>417</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="15" t="s">
         <v>420</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="15" t="s">
         <v>423</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="15" t="s">
         <v>426</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="15" t="s">
         <v>429</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="15" t="s">
         <v>432</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="15" t="s">
         <v>435</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="15" t="s">
         <v>438</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="15" t="s">
         <v>441</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="15" t="s">
         <v>444</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="51" t="s">
         <v>447</v>
       </c>
@@ -10160,7 +10160,7 @@
       <c r="H158" s="55"/>
       <c r="I158" s="55"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="15" t="s">
         <v>449</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="15" t="s">
         <v>452</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="15" t="s">
         <v>455</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="15" t="s">
         <v>458</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="15" t="s">
         <v>461</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="51" t="s">
         <v>464</v>
       </c>
@@ -10320,7 +10320,7 @@
       <c r="H164" s="55"/>
       <c r="I164" s="55"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="15" t="s">
         <v>466</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="15" t="s">
         <v>469</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="15" t="s">
         <v>472</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="15" t="s">
         <v>475</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="15" t="s">
         <v>478</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="15" t="s">
         <v>481</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="15" t="s">
         <v>484</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="C172" s="47" t="s">
         <v>70</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="51" t="s">
         <v>487</v>
       </c>
@@ -10557,7 +10557,7 @@
       <c r="H173" s="55"/>
       <c r="I173" s="55"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="57" t="s">
         <v>489</v>
       </c>
@@ -10572,7 +10572,7 @@
       <c r="H174" s="55"/>
       <c r="I174" s="55"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="15" t="s">
         <v>491</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="15" t="s">
         <v>494</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="15" t="s">
         <v>497</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="15" t="s">
         <v>500</v>
       </c>
@@ -10688,7 +10688,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="15" t="s">
         <v>503</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="15" t="s">
         <v>506</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="15" t="s">
         <v>509</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="15" t="s">
         <v>512</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="15" t="s">
         <v>515</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="15" t="s">
         <v>518</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="15" t="s">
         <v>521</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="57" t="s">
         <v>524</v>
       </c>
@@ -10906,7 +10906,7 @@
       <c r="H186" s="45"/>
       <c r="I186" s="45"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="15" t="s">
         <v>526</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="15" t="s">
         <v>529</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="15" t="s">
         <v>532</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="15" t="s">
         <v>535</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="15" t="s">
         <v>538</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="57" t="s">
         <v>541</v>
       </c>
@@ -11066,7 +11066,7 @@
       <c r="H192" s="45"/>
       <c r="I192" s="45"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" s="15" t="s">
         <v>543</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="15" t="s">
         <v>546</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" s="15" t="s">
         <v>549</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="15" t="s">
         <v>552</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" s="15" t="s">
         <v>555</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" s="15" t="s">
         <v>558</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" s="15" t="s">
         <v>561</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" s="15" t="s">
         <v>564</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" s="15" t="s">
         <v>567</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" s="15" t="s">
         <v>570</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" s="15" t="s">
         <v>573</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" s="15" t="s">
         <v>576</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" s="15" t="s">
         <v>579</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" s="15" t="s">
         <v>582</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="15" t="s">
         <v>585</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" s="15" t="s">
         <v>588</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10">
       <c r="A209" s="15" t="s">
         <v>591</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10">
       <c r="A210" s="15" t="s">
         <v>594</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10">
       <c r="A211" s="15" t="s">
         <v>597</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10">
       <c r="A212" s="15" t="s">
         <v>600</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10">
       <c r="C213" s="47" t="s">
         <v>70</v>
       </c>
@@ -11668,7 +11668,7 @@
       </c>
       <c r="J213" s="92"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10">
       <c r="A214" s="51" t="s">
         <v>603</v>
       </c>
@@ -11681,7 +11681,7 @@
       <c r="H214" s="55"/>
       <c r="I214" s="55"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10">
       <c r="A215" s="51" t="s">
         <v>605</v>
       </c>
@@ -11696,7 +11696,7 @@
       <c r="H215" s="55"/>
       <c r="I215" s="55"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10">
       <c r="A216" s="51" t="s">
         <v>607</v>
       </c>
@@ -11711,7 +11711,7 @@
       <c r="H216" s="55"/>
       <c r="I216" s="55"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10">
       <c r="A217" s="15" t="s">
         <v>609</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10">
       <c r="A218" s="15" t="s">
         <v>613</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10">
       <c r="A219" s="15" t="s">
         <v>616</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10">
       <c r="A220" s="15" t="s">
         <v>619</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10">
       <c r="A221" s="15" t="s">
         <v>622</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10">
       <c r="A222" s="15" t="s">
         <v>625</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10">
       <c r="A223" s="51" t="s">
         <v>628</v>
       </c>
@@ -11900,7 +11900,7 @@
       <c r="H223" s="55"/>
       <c r="I223" s="55"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10">
       <c r="A224" s="15" t="s">
         <v>630</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10">
       <c r="A225" s="15" t="s">
         <v>633</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10">
       <c r="A226" s="15" t="s">
         <v>636</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10">
       <c r="A227" s="15" t="s">
         <v>639</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10">
       <c r="A228" s="15" t="s">
         <v>642</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10">
       <c r="A229" s="51" t="s">
         <v>645</v>
       </c>
@@ -12060,7 +12060,7 @@
       <c r="H229" s="55"/>
       <c r="I229" s="55"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10">
       <c r="A230" s="15" t="s">
         <v>647</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10">
       <c r="A231" s="15" t="s">
         <v>650</v>
       </c>
@@ -12119,7 +12119,7 @@
       </c>
       <c r="J231" s="60"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10">
       <c r="A232" s="51" t="s">
         <v>653</v>
       </c>
@@ -12134,7 +12134,7 @@
       <c r="H232" s="55"/>
       <c r="I232" s="55"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10">
       <c r="A233" s="51" t="s">
         <v>655</v>
       </c>
@@ -12153,7 +12153,7 @@
       <c r="H233" s="55"/>
       <c r="I233" s="55"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10">
       <c r="A234" s="15" t="s">
         <v>658</v>
       </c>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="J234" s="60"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10">
       <c r="A235" s="15" t="s">
         <v>661</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10">
       <c r="A236" s="15" t="s">
         <v>664</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10">
       <c r="A237" s="15" t="s">
         <v>667</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10">
       <c r="A238" s="51" t="s">
         <v>670</v>
       </c>
@@ -12289,7 +12289,7 @@
       <c r="H238" s="55"/>
       <c r="I238" s="55"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10">
       <c r="A239" s="15" t="s">
         <v>672</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10">
       <c r="A240" s="15" t="s">
         <v>675</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9">
       <c r="A241" s="15" t="s">
         <v>678</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9">
       <c r="A242" s="15" t="s">
         <v>681</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9">
       <c r="A243" s="51" t="s">
         <v>684</v>
       </c>
@@ -12422,7 +12422,7 @@
       <c r="H243" s="55"/>
       <c r="I243" s="55"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9">
       <c r="A244" s="15" t="s">
         <v>686</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9">
       <c r="A245" s="15" t="s">
         <v>689</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9">
       <c r="A246" s="15" t="s">
         <v>692</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9">
       <c r="A247" s="15" t="s">
         <v>695</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9">
       <c r="A248" s="51" t="s">
         <v>698</v>
       </c>
@@ -12553,7 +12553,7 @@
       <c r="H248" s="55"/>
       <c r="I248" s="55"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9">
       <c r="A249" s="51" t="s">
         <v>700</v>
       </c>
@@ -12572,7 +12572,7 @@
       <c r="H249" s="55"/>
       <c r="I249" s="55"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9">
       <c r="A250" s="15" t="s">
         <v>702</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9">
       <c r="A251" s="15" t="s">
         <v>705</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9">
       <c r="A252" s="15" t="s">
         <v>708</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9">
       <c r="A253" s="15" t="s">
         <v>711</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9">
       <c r="A254" s="51" t="s">
         <v>714</v>
       </c>
@@ -12703,7 +12703,7 @@
       <c r="H254" s="55"/>
       <c r="I254" s="55"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9">
       <c r="A255" s="15" t="s">
         <v>716</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9">
       <c r="A256" s="15" t="s">
         <v>719</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9">
       <c r="A257" s="15" t="s">
         <v>722</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9">
       <c r="A258" s="51" t="s">
         <v>725</v>
       </c>
@@ -12809,7 +12809,7 @@
       <c r="H258" s="55"/>
       <c r="I258" s="55"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9">
       <c r="A259" s="15" t="s">
         <v>727</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9">
       <c r="A260" s="15" t="s">
         <v>730</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9">
       <c r="A261" s="15" t="s">
         <v>733</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9">
       <c r="A262" s="51" t="s">
         <v>736</v>
       </c>
@@ -12911,7 +12911,7 @@
       <c r="H262" s="55"/>
       <c r="I262" s="55"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9">
       <c r="A263" s="51" t="s">
         <v>738</v>
       </c>
@@ -12930,7 +12930,7 @@
       <c r="H263" s="55"/>
       <c r="I263" s="55"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9">
       <c r="A264" s="15" t="s">
         <v>740</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9">
       <c r="A265" s="15" t="s">
         <v>743</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9">
       <c r="A266" s="15" t="s">
         <v>746</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9">
       <c r="A267" s="51" t="s">
         <v>749</v>
       </c>
@@ -13036,7 +13036,7 @@
       <c r="H267" s="55"/>
       <c r="I267" s="55"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9">
       <c r="A268" s="15" t="s">
         <v>751</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9">
       <c r="A269" s="15" t="s">
         <v>754</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9">
       <c r="A270" s="15" t="s">
         <v>757</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9">
       <c r="A271" s="51" t="s">
         <v>760</v>
       </c>
@@ -13142,7 +13142,7 @@
       <c r="H271" s="65"/>
       <c r="I271" s="66"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9">
       <c r="A272" s="15" t="s">
         <v>762</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9">
       <c r="A273" s="15" t="s">
         <v>765</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9">
       <c r="A274" s="15" t="s">
         <v>768</v>
       </c>
@@ -13229,7 +13229,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9">
       <c r="C275" s="47" t="s">
         <v>70</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9">
       <c r="A276" s="51" t="s">
         <v>771</v>
       </c>
@@ -13263,7 +13263,7 @@
       <c r="H276" s="55"/>
       <c r="I276" s="55"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9">
       <c r="A277" s="51" t="s">
         <v>773</v>
       </c>
@@ -13278,7 +13278,7 @@
       <c r="H277" s="55"/>
       <c r="I277" s="55"/>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9">
       <c r="A278" s="15" t="s">
         <v>775</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9">
       <c r="A279" s="15" t="s">
         <v>778</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9">
       <c r="A280" s="15" t="s">
         <v>781</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9">
       <c r="A281" s="15" t="s">
         <v>784</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9">
       <c r="A282" s="15" t="s">
         <v>787</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9">
       <c r="A283" s="15" t="s">
         <v>790</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9">
       <c r="A284" s="15" t="s">
         <v>793</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9">
       <c r="A285" s="15" t="s">
         <v>796</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9">
       <c r="A286" s="15" t="s">
         <v>799</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9">
       <c r="A287" s="15" t="s">
         <v>802</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9">
       <c r="A288" s="15" t="s">
         <v>805</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9">
       <c r="A289" s="15" t="s">
         <v>808</v>
       </c>
@@ -13626,7 +13626,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9">
       <c r="A290" s="15" t="s">
         <v>811</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9">
       <c r="A291" s="15" t="s">
         <v>814</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9">
       <c r="A292" s="15" t="s">
         <v>817</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9">
       <c r="A293" s="15" t="s">
         <v>820</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9">
       <c r="A294" s="15" t="s">
         <v>823</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9">
       <c r="A295" s="15" t="s">
         <v>826</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9">
       <c r="A296" s="15" t="s">
         <v>829</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9">
       <c r="A297" s="15" t="s">
         <v>832</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9">
       <c r="A298" s="15" t="s">
         <v>834</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9">
       <c r="A299" s="15" t="s">
         <v>837</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9">
       <c r="A300" s="15" t="s">
         <v>840</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9">
       <c r="A301" s="51" t="s">
         <v>843</v>
       </c>
@@ -13960,7 +13960,7 @@
       <c r="H301" s="55"/>
       <c r="I301" s="55"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9">
       <c r="A302" s="15" t="s">
         <v>845</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9">
       <c r="A303" s="15" t="s">
         <v>848</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9">
       <c r="A304" s="15" t="s">
         <v>851</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10">
       <c r="A305" s="15" t="s">
         <v>854</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10">
       <c r="A306" s="15" t="s">
         <v>857</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10">
       <c r="A307" s="15" t="s">
         <v>860</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10">
       <c r="A308" s="15" t="s">
         <v>863</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10">
       <c r="A309" s="15" t="s">
         <v>865</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10">
       <c r="A310" s="15" t="s">
         <v>867</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10">
       <c r="A311" s="15" t="s">
         <v>870</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10">
       <c r="A312" s="15" t="s">
         <v>873</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10">
       <c r="A313" s="15" t="s">
         <v>876</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10">
       <c r="A314" s="51" t="s">
         <v>879</v>
       </c>
@@ -14323,7 +14323,7 @@
       <c r="H314" s="55"/>
       <c r="I314" s="55"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10">
       <c r="A315" s="15" t="s">
         <v>881</v>
       </c>
@@ -14353,7 +14353,7 @@
       </c>
       <c r="J315" s="67"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10">
       <c r="A316" s="15" t="s">
         <v>884</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10">
       <c r="A317" s="15" t="s">
         <v>887</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10">
       <c r="A318" s="15" t="s">
         <v>890</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10">
       <c r="A319" s="15" t="s">
         <v>893</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10">
       <c r="A320" s="15" t="s">
         <v>896</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9">
       <c r="A321" s="15" t="s">
         <v>899</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9">
       <c r="A322" s="15" t="s">
         <v>902</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9">
       <c r="A323" s="15" t="s">
         <v>904</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9">
       <c r="A324" s="15" t="s">
         <v>907</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9">
       <c r="A325" s="51" t="s">
         <v>910</v>
       </c>
@@ -14629,7 +14629,7 @@
       <c r="H325" s="55"/>
       <c r="I325" s="55"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9">
       <c r="A326" s="15" t="s">
         <v>912</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9">
       <c r="A327" s="15" t="s">
         <v>915</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9">
       <c r="A328" s="15" t="s">
         <v>918</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9">
       <c r="A329" s="15" t="s">
         <v>921</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9">
       <c r="A330" s="15" t="s">
         <v>924</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9">
       <c r="A331" s="15" t="s">
         <v>926</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9">
       <c r="A332" s="15" t="s">
         <v>928</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9">
       <c r="A333" s="15" t="s">
         <v>930</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9">
       <c r="A334" s="15" t="s">
         <v>933</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9">
       <c r="A335" s="15" t="s">
         <v>935</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9">
       <c r="A336" s="15" t="s">
         <v>938</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9">
       <c r="A337" s="15" t="s">
         <v>941</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9">
       <c r="A338" s="15" t="s">
         <v>944</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9">
       <c r="A339" s="51" t="s">
         <v>947</v>
       </c>
@@ -15021,7 +15021,7 @@
       <c r="H339" s="55"/>
       <c r="I339" s="55"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9">
       <c r="A340" s="15" t="s">
         <v>949</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9">
       <c r="A341" s="15" t="s">
         <v>952</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9">
       <c r="A342" s="15" t="s">
         <v>955</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9">
       <c r="A343" s="15" t="s">
         <v>958</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9">
       <c r="A344" s="15" t="s">
         <v>961</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9">
       <c r="A345" s="15" t="s">
         <v>964</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9">
       <c r="A346" s="15" t="s">
         <v>966</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9">
       <c r="A347" s="15" t="s">
         <v>969</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9">
       <c r="A348" s="15" t="s">
         <v>971</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9">
       <c r="A349" s="15" t="s">
         <v>974</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9">
       <c r="A350" s="15" t="s">
         <v>977</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9">
       <c r="A351" s="15" t="s">
         <v>980</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9">
       <c r="A352" s="51" t="s">
         <v>983</v>
       </c>
@@ -15384,7 +15384,7 @@
       <c r="H352" s="55"/>
       <c r="I352" s="55"/>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9">
       <c r="A353" s="15" t="s">
         <v>985</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9">
       <c r="A354" s="15" t="s">
         <v>988</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9">
       <c r="A355" s="15" t="s">
         <v>991</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9">
       <c r="A356" s="15" t="s">
         <v>994</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9">
       <c r="A357" s="15" t="s">
         <v>996</v>
       </c>
@@ -15529,7 +15529,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9">
       <c r="A358" s="15" t="s">
         <v>999</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9">
       <c r="A359" s="15" t="s">
         <v>1002</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9">
       <c r="A360" s="15" t="s">
         <v>1005</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9">
       <c r="A361" s="15" t="s">
         <v>1008</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9">
       <c r="A362" s="15" t="s">
         <v>1011</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9">
       <c r="A363" s="15" t="s">
         <v>1014</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9">
       <c r="A364" s="15" t="s">
         <v>1016</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9">
       <c r="A365" s="51" t="s">
         <v>1018</v>
       </c>
@@ -15747,7 +15747,7 @@
       <c r="H365" s="55"/>
       <c r="I365" s="55"/>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9">
       <c r="A366" s="15" t="s">
         <v>1020</v>
       </c>
@@ -15776,7 +15776,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9">
       <c r="A367" s="15" t="s">
         <v>1023</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9">
       <c r="A368" s="15" t="s">
         <v>1026</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9">
       <c r="A369" s="15" t="s">
         <v>1029</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9">
       <c r="A370" s="15" t="s">
         <v>1032</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9">
       <c r="A371" s="15" t="s">
         <v>1035</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9">
       <c r="A372" s="15" t="s">
         <v>1037</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9">
       <c r="A373" s="15" t="s">
         <v>1040</v>
       </c>
@@ -15979,7 +15979,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9">
       <c r="A374" s="15" t="s">
         <v>1043</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9">
       <c r="A375" s="15" t="s">
         <v>1046</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9">
       <c r="A376" s="15" t="s">
         <v>1049</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9">
       <c r="A377" s="15" t="s">
         <v>1052</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9">
       <c r="A378" s="15" t="s">
         <v>1055</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9">
       <c r="A379" s="15" t="s">
         <v>1058</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9">
       <c r="C380" s="47" t="s">
         <v>70</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9">
       <c r="A381" s="51" t="s">
         <v>1061</v>
       </c>
@@ -16187,7 +16187,7 @@
       <c r="H381" s="55"/>
       <c r="I381" s="55"/>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9">
       <c r="A382" s="15" t="s">
         <v>1063</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9">
       <c r="A383" s="15" t="s">
         <v>1067</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9">
       <c r="A384" s="15" t="s">
         <v>1070</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9">
       <c r="A385" s="15" t="s">
         <v>1073</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9">
       <c r="A386" s="15" t="s">
         <v>1076</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9">
       <c r="A387" s="15" t="s">
         <v>1079</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9">
       <c r="C388" s="47" t="s">
         <v>70</v>
       </c>
@@ -16382,7 +16382,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9">
       <c r="A389" s="51" t="s">
         <v>1082</v>
       </c>
@@ -16395,7 +16395,7 @@
       <c r="H389" s="55"/>
       <c r="I389" s="55"/>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9">
       <c r="A390" s="15" t="s">
         <v>1084</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9">
       <c r="A391" s="51" t="s">
         <v>1087</v>
       </c>
@@ -16437,7 +16437,7 @@
       <c r="H391" s="55"/>
       <c r="I391" s="55"/>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9">
       <c r="A392" s="15" t="s">
         <v>1089</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9">
       <c r="A393" s="15" t="s">
         <v>1092</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9">
       <c r="A394" s="15" t="s">
         <v>1095</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9">
       <c r="A395" s="15" t="s">
         <v>1098</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9">
       <c r="A396" s="15" t="s">
         <v>1101</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9">
       <c r="A397" s="15" t="s">
         <v>1104</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9">
       <c r="A398" s="15" t="s">
         <v>1107</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9">
       <c r="A399" s="15" t="s">
         <v>1110</v>
       </c>
@@ -16669,7 +16669,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9">
       <c r="A400" s="15" t="s">
         <v>1113</v>
       </c>
@@ -16698,7 +16698,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9">
       <c r="A401" s="15" t="s">
         <v>1116</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9">
       <c r="A402" s="15" t="s">
         <v>1119</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9">
       <c r="A403" s="15" t="s">
         <v>1122</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9">
       <c r="A404" s="15" t="s">
         <v>1125</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9">
       <c r="A405" s="15" t="s">
         <v>1128</v>
       </c>
@@ -16843,7 +16843,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9">
       <c r="A406" s="15" t="s">
         <v>1131</v>
       </c>
@@ -16872,7 +16872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9">
       <c r="A407" s="15" t="s">
         <v>1134</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9">
       <c r="A408" s="15" t="s">
         <v>1137</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9">
       <c r="A409" s="15" t="s">
         <v>1140</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9">
       <c r="C410" s="47" t="s">
         <v>70</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9">
       <c r="A411" s="51" t="s">
         <v>1143</v>
       </c>
@@ -16993,7 +16993,7 @@
       <c r="H411" s="55"/>
       <c r="I411" s="55"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9">
       <c r="A412" s="15" t="s">
         <v>1145</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9">
       <c r="A413" s="70" t="s">
         <v>1148</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9">
       <c r="A414" s="58" t="s">
         <v>1151</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9">
       <c r="A415" s="58" t="s">
         <v>1154</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9">
       <c r="A416" s="58" t="s">
         <v>1157</v>
       </c>
@@ -17138,7 +17138,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9">
       <c r="A417" s="58" t="s">
         <v>1160</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9">
       <c r="A418" s="58" t="s">
         <v>1163</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9">
       <c r="A419" s="58" t="s">
         <v>1166</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9">
       <c r="C420" s="47" t="s">
         <v>70</v>
       </c>
@@ -17246,7 +17246,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9">
       <c r="A421" s="51" t="s">
         <v>1169</v>
       </c>
@@ -17259,7 +17259,7 @@
       <c r="H421" s="55"/>
       <c r="I421" s="55"/>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9">
       <c r="A422" s="52">
         <v>145</v>
       </c>
@@ -17274,7 +17274,7 @@
       <c r="H422" s="55"/>
       <c r="I422" s="55"/>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9">
       <c r="A423" s="58" t="s">
         <v>1172</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9">
       <c r="A424" s="15" t="s">
         <v>1175</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9">
       <c r="A425" s="15" t="s">
         <v>1178</v>
       </c>
@@ -17361,7 +17361,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9">
       <c r="A426" s="15" t="s">
         <v>1181</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9">
       <c r="A427" s="15" t="s">
         <v>1184</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9">
       <c r="A428" s="52">
         <v>146</v>
       </c>
@@ -17434,7 +17434,7 @@
       <c r="H428" s="55"/>
       <c r="I428" s="55"/>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9">
       <c r="A429" s="15" t="s">
         <v>1188</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9">
       <c r="A430" s="15" t="s">
         <v>1191</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9">
       <c r="A431" s="15" t="s">
         <v>1194</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9">
       <c r="A432" s="15" t="s">
         <v>1197</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9">
       <c r="A433" s="15" t="s">
         <v>1200</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9">
       <c r="A434" s="52">
         <v>147</v>
       </c>
@@ -17594,7 +17594,7 @@
       <c r="H434" s="55"/>
       <c r="I434" s="55"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9">
       <c r="A435" s="15" t="s">
         <v>1204</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9">
       <c r="A436" s="15" t="s">
         <v>1207</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9">
       <c r="A437" s="15" t="s">
         <v>1210</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9">
       <c r="C438" s="47" t="s">
         <v>70</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9">
       <c r="A439" s="51" t="s">
         <v>1213</v>
       </c>
@@ -17715,7 +17715,7 @@
       <c r="H439" s="55"/>
       <c r="I439" s="55"/>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9">
       <c r="A440" s="15" t="s">
         <v>1215</v>
       </c>
@@ -17744,7 +17744,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9">
       <c r="A441" s="15" t="s">
         <v>1218</v>
       </c>
@@ -17773,7 +17773,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9">
       <c r="A442" s="15" t="s">
         <v>1221</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9">
       <c r="A443" s="15" t="s">
         <v>1224</v>
       </c>
@@ -17831,7 +17831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9">
       <c r="A444" s="15" t="s">
         <v>1227</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9">
       <c r="A445" s="15" t="s">
         <v>1230</v>
       </c>
@@ -17889,7 +17889,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9">
       <c r="A446" s="15" t="s">
         <v>1233</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9">
       <c r="A447" s="15" t="s">
         <v>1236</v>
       </c>
@@ -17947,7 +17947,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9">
       <c r="A448" s="15" t="s">
         <v>1239</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9">
       <c r="A449" s="15" t="s">
         <v>1242</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9">
       <c r="A450" s="15" t="s">
         <v>1245</v>
       </c>
@@ -18034,7 +18034,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9">
       <c r="A451" s="15" t="s">
         <v>1248</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9">
       <c r="A452" s="15" t="s">
         <v>1251</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9">
       <c r="A453" s="15" t="s">
         <v>1254</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9">
       <c r="C454" s="47" t="s">
         <v>70</v>
       </c>
@@ -18142,7 +18142,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9">
       <c r="A455" s="51" t="s">
         <v>1257</v>
       </c>
@@ -18155,7 +18155,7 @@
       <c r="H455" s="55"/>
       <c r="I455" s="55"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9">
       <c r="A456" s="15" t="s">
         <v>1259</v>
       </c>
@@ -18184,7 +18184,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9">
       <c r="A457" s="42" t="s">
         <v>1262</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9">
       <c r="A458" s="15" t="s">
         <v>1265</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9">
       <c r="A459" s="15" t="s">
         <v>1268</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9">
       <c r="A460" s="15" t="s">
         <v>1271</v>
       </c>
@@ -18300,7 +18300,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9">
       <c r="A461" s="15" t="s">
         <v>1274</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9">
       <c r="A462" s="15" t="s">
         <v>1277</v>
       </c>
@@ -18358,7 +18358,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9">
       <c r="A463" s="15" t="s">
         <v>1280</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9">
       <c r="A464" s="15" t="s">
         <v>1283</v>
       </c>
@@ -18416,7 +18416,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9">
       <c r="A465" s="15" t="s">
         <v>1286</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9">
       <c r="A466" s="15" t="s">
         <v>1289</v>
       </c>
@@ -18474,7 +18474,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9">
       <c r="A467" s="15" t="s">
         <v>1292</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9">
       <c r="A468" s="15" t="s">
         <v>1295</v>
       </c>
@@ -18532,7 +18532,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9">
       <c r="A469" s="15" t="s">
         <v>1298</v>
       </c>
@@ -18561,7 +18561,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9">
       <c r="A470" s="15" t="s">
         <v>1301</v>
       </c>
@@ -18590,7 +18590,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9">
       <c r="A471" s="15" t="s">
         <v>1304</v>
       </c>
@@ -18619,7 +18619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9">
       <c r="A472" s="15" t="s">
         <v>1307</v>
       </c>
@@ -18648,7 +18648,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9">
       <c r="A473" s="15" t="s">
         <v>1310</v>
       </c>
@@ -18677,7 +18677,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9">
       <c r="A474" s="15" t="s">
         <v>1313</v>
       </c>
@@ -18706,7 +18706,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9">
       <c r="A475" s="15" t="s">
         <v>1316</v>
       </c>
@@ -18735,7 +18735,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9">
       <c r="A476" s="15" t="s">
         <v>1319</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9">
       <c r="A477" s="15" t="s">
         <v>1322</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9">
       <c r="A478" s="15" t="s">
         <v>1325</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9">
       <c r="C479" s="47" t="s">
         <v>70</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="480" spans="1:9" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" s="35" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A480" s="40"/>
       <c r="B480" s="41" t="s">
         <v>1328</v>
@@ -18868,10 +18868,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:19">
       <c r="J481" s="67"/>
     </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:19">
       <c r="C482" s="48"/>
       <c r="D482" s="48"/>
       <c r="E482" s="49"/>
@@ -18881,7 +18881,7 @@
       <c r="I482" s="50"/>
       <c r="J482" s="67"/>
     </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:19">
       <c r="A483" s="20"/>
       <c r="B483" s="20"/>
       <c r="C483" s="72"/>
@@ -18892,7 +18892,7 @@
       <c r="H483" s="74"/>
       <c r="I483" s="15"/>
     </row>
-    <row r="484" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:19" ht="12.75" customHeight="1">
       <c r="A484" s="75" t="s">
         <v>1334</v>
       </c>
@@ -18905,7 +18905,7 @@
       <c r="H484" s="15"/>
       <c r="I484" s="15"/>
     </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:19">
       <c r="A485" s="75"/>
       <c r="B485" s="75"/>
       <c r="C485" s="72"/>
@@ -18916,7 +18916,7 @@
       <c r="H485" s="74"/>
       <c r="I485" s="15"/>
     </row>
-    <row r="486" spans="1:19" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:19" s="82" customFormat="1" ht="13.5">
       <c r="A486" s="78" t="s">
         <v>1329</v>
       </c>
@@ -18929,7 +18929,7 @@
       <c r="H486" s="81"/>
       <c r="I486" s="81"/>
     </row>
-    <row r="487" spans="1:19" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:19" s="82" customFormat="1" ht="13.5">
       <c r="A487" s="78" t="s">
         <v>1330</v>
       </c>
@@ -18942,7 +18942,7 @@
       <c r="H487" s="81"/>
       <c r="I487" s="81"/>
     </row>
-    <row r="488" spans="1:19" s="82" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:19" s="82" customFormat="1" ht="12.75" customHeight="1">
       <c r="A488" s="78" t="s">
         <v>1331</v>
       </c>
@@ -18955,7 +18955,7 @@
       <c r="H488" s="78"/>
       <c r="I488" s="78"/>
     </row>
-    <row r="489" spans="1:19" s="82" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:19" s="82" customFormat="1" ht="26.25" customHeight="1">
       <c r="A489" s="94" t="s">
         <v>1332</v>
       </c>
@@ -18978,7 +18978,7 @@
       <c r="R489" s="87"/>
       <c r="S489" s="87"/>
     </row>
-    <row r="490" spans="1:19" s="88" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:19" s="88" customFormat="1" ht="26.25" customHeight="1">
       <c r="A490" s="94" t="s">
         <v>1333</v>
       </c>
@@ -18990,7 +18990,7 @@
       <c r="G490" s="94"/>
       <c r="H490" s="94"/>
     </row>
-    <row r="491" spans="1:19" s="88" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" s="88" customFormat="1" ht="12" customHeight="1">
       <c r="A491" s="89"/>
       <c r="B491" s="90"/>
       <c r="C491" s="90"/>
@@ -19005,7 +19005,7 @@
       <c r="L491" s="91"/>
       <c r="M491" s="91"/>
     </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19">
       <c r="A492" s="13" t="s">
         <v>7</v>
       </c>
@@ -19018,7 +19018,7 @@
       <c r="H492" s="13"/>
       <c r="I492" s="13"/>
     </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:19">
       <c r="A493" s="13" t="s">
         <v>1336</v>
       </c>
@@ -19031,7 +19031,7 @@
       <c r="H493" s="13"/>
       <c r="I493" s="13"/>
     </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:19">
       <c r="A494" s="13" t="s">
         <v>8</v>
       </c>
@@ -19044,563 +19044,563 @@
       <c r="H494" s="13"/>
       <c r="I494" s="13"/>
     </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:19">
       <c r="E495" s="54"/>
       <c r="F495" s="55"/>
       <c r="G495" s="55"/>
       <c r="H495" s="55"/>
       <c r="I495" s="55"/>
     </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:19">
       <c r="E496" s="54"/>
       <c r="F496" s="55"/>
       <c r="G496" s="55"/>
       <c r="H496" s="55"/>
       <c r="I496" s="55"/>
     </row>
-    <row r="497" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="5:9">
       <c r="E497" s="54"/>
       <c r="F497" s="55"/>
       <c r="G497" s="55"/>
       <c r="H497" s="55"/>
       <c r="I497" s="55"/>
     </row>
-    <row r="498" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="5:9">
       <c r="E498" s="54"/>
       <c r="F498" s="55"/>
       <c r="G498" s="55"/>
       <c r="H498" s="55"/>
       <c r="I498" s="55"/>
     </row>
-    <row r="499" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="5:9">
       <c r="E499" s="54"/>
       <c r="F499" s="55"/>
       <c r="G499" s="55"/>
       <c r="H499" s="55"/>
       <c r="I499" s="55"/>
     </row>
-    <row r="500" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="5:9">
       <c r="E500" s="54"/>
       <c r="F500" s="55"/>
       <c r="G500" s="55"/>
       <c r="H500" s="55"/>
       <c r="I500" s="55"/>
     </row>
-    <row r="501" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="5:9">
       <c r="E501" s="54"/>
       <c r="F501" s="55"/>
       <c r="G501" s="55"/>
       <c r="H501" s="55"/>
       <c r="I501" s="55"/>
     </row>
-    <row r="502" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="5:9">
       <c r="E502" s="54"/>
       <c r="F502" s="55"/>
       <c r="G502" s="55"/>
       <c r="H502" s="55"/>
       <c r="I502" s="55"/>
     </row>
-    <row r="503" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="5:9">
       <c r="E503" s="54"/>
       <c r="F503" s="55"/>
       <c r="G503" s="55"/>
       <c r="H503" s="55"/>
       <c r="I503" s="55"/>
     </row>
-    <row r="504" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="5:9">
       <c r="E504" s="54"/>
       <c r="F504" s="55"/>
       <c r="G504" s="55"/>
       <c r="H504" s="55"/>
       <c r="I504" s="55"/>
     </row>
-    <row r="505" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="5:9">
       <c r="E505" s="54"/>
       <c r="F505" s="55"/>
       <c r="G505" s="55"/>
       <c r="H505" s="55"/>
       <c r="I505" s="55"/>
     </row>
-    <row r="506" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="5:9">
       <c r="E506" s="54"/>
       <c r="F506" s="55"/>
       <c r="G506" s="55"/>
       <c r="H506" s="55"/>
       <c r="I506" s="55"/>
     </row>
-    <row r="507" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="5:9">
       <c r="E507" s="54"/>
       <c r="F507" s="55"/>
       <c r="G507" s="55"/>
       <c r="H507" s="55"/>
       <c r="I507" s="55"/>
     </row>
-    <row r="508" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="5:9">
       <c r="E508" s="54"/>
       <c r="F508" s="55"/>
       <c r="G508" s="55"/>
       <c r="H508" s="55"/>
       <c r="I508" s="55"/>
     </row>
-    <row r="509" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="5:9">
       <c r="E509" s="54"/>
       <c r="F509" s="55"/>
       <c r="G509" s="55"/>
       <c r="H509" s="55"/>
       <c r="I509" s="55"/>
     </row>
-    <row r="510" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="5:9">
       <c r="E510" s="54"/>
       <c r="F510" s="55"/>
       <c r="G510" s="55"/>
       <c r="H510" s="55"/>
       <c r="I510" s="55"/>
     </row>
-    <row r="511" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="5:9">
       <c r="E511" s="54"/>
     </row>
-    <row r="512" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="5:9">
       <c r="E512" s="54"/>
     </row>
-    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="5:5">
       <c r="E513" s="54"/>
     </row>
-    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="5:5">
       <c r="E514" s="54"/>
     </row>
-    <row r="515" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="5:5">
       <c r="E515" s="54"/>
     </row>
-    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="5:5">
       <c r="E516" s="54"/>
     </row>
-    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="5:5">
       <c r="E517" s="54"/>
     </row>
-    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="5:5">
       <c r="E518" s="54"/>
     </row>
-    <row r="519" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="5:5">
       <c r="E519" s="54"/>
     </row>
-    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="5:5">
       <c r="E520" s="54"/>
     </row>
-    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="5:5">
       <c r="E521" s="54"/>
     </row>
-    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="5:5">
       <c r="E522" s="54"/>
     </row>
-    <row r="523" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="5:5">
       <c r="E523" s="54"/>
     </row>
-    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="5:5">
       <c r="E524" s="54"/>
     </row>
-    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="5:5">
       <c r="E525" s="54"/>
     </row>
-    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="5:5">
       <c r="E526" s="54"/>
     </row>
-    <row r="527" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="5:5">
       <c r="E527" s="54"/>
     </row>
-    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="5:5">
       <c r="E528" s="54"/>
     </row>
-    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:5">
       <c r="E529" s="54"/>
     </row>
-    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:5">
       <c r="E530" s="54"/>
     </row>
-    <row r="531" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:5">
       <c r="E531" s="54"/>
     </row>
-    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:5">
       <c r="E532" s="54"/>
     </row>
-    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:5">
       <c r="E533" s="54"/>
     </row>
-    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:5">
       <c r="E534" s="54"/>
     </row>
-    <row r="535" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:5">
       <c r="E535" s="54"/>
     </row>
-    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:5">
       <c r="E536" s="54"/>
     </row>
-    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:5">
       <c r="E537" s="54"/>
     </row>
-    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:5">
       <c r="E538" s="54"/>
     </row>
-    <row r="539" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:5">
       <c r="E539" s="54"/>
     </row>
-    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:5">
       <c r="E540" s="54"/>
     </row>
-    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:5">
       <c r="E541" s="54"/>
     </row>
-    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:5">
       <c r="E542" s="54"/>
     </row>
-    <row r="543" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:5">
       <c r="E543" s="54"/>
     </row>
-    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:5">
       <c r="E544" s="54"/>
     </row>
-    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:5">
       <c r="E545" s="54"/>
     </row>
-    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:5">
       <c r="E546" s="54"/>
     </row>
-    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:5">
       <c r="E547" s="54"/>
     </row>
-    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:5">
       <c r="E548" s="54"/>
     </row>
-    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:5">
       <c r="E549" s="54"/>
     </row>
-    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="5:5">
       <c r="E550" s="54"/>
     </row>
-    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:5">
       <c r="E551" s="54"/>
     </row>
-    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:5">
       <c r="E552" s="54"/>
     </row>
-    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:5">
       <c r="E553" s="54"/>
     </row>
-    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:5">
       <c r="E554" s="54"/>
     </row>
-    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:5">
       <c r="E555" s="54"/>
     </row>
-    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:5">
       <c r="E556" s="54"/>
     </row>
-    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="5:5">
       <c r="E557" s="54"/>
     </row>
-    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:5">
       <c r="E558" s="54"/>
     </row>
-    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:5">
       <c r="E559" s="54"/>
     </row>
-    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:5">
       <c r="E560" s="54"/>
     </row>
-    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="5:5">
       <c r="E561" s="54"/>
     </row>
-    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="5:5">
       <c r="E562" s="54"/>
     </row>
-    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="5:5">
       <c r="E563" s="54"/>
     </row>
-    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="5:5">
       <c r="E564" s="54"/>
     </row>
-    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="5:5">
       <c r="E565" s="54"/>
     </row>
-    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="5:5">
       <c r="E566" s="54"/>
     </row>
-    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="5:5">
       <c r="E567" s="54"/>
     </row>
-    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="5:5">
       <c r="E568" s="54"/>
     </row>
-    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="5:5">
       <c r="E569" s="54"/>
     </row>
-    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="5:5">
       <c r="E570" s="54"/>
     </row>
-    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="5:5">
       <c r="E571" s="54"/>
     </row>
-    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="5:5">
       <c r="E572" s="54"/>
     </row>
-    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="5:5">
       <c r="E573" s="54"/>
     </row>
-    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="5:5">
       <c r="E574" s="54"/>
     </row>
-    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="5:5">
       <c r="E575" s="54"/>
     </row>
-    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="5:5">
       <c r="E576" s="54"/>
     </row>
-    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="5:5">
       <c r="E577" s="54"/>
     </row>
-    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="5:5">
       <c r="E578" s="54"/>
     </row>
-    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="5:5">
       <c r="E579" s="54"/>
     </row>
-    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="5:5">
       <c r="E580" s="54"/>
     </row>
-    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="5:5">
       <c r="E581" s="54"/>
     </row>
-    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="5:5">
       <c r="E582" s="54"/>
     </row>
-    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="5:5">
       <c r="E583" s="54"/>
     </row>
-    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="5:5">
       <c r="E584" s="54"/>
     </row>
-    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="5:5">
       <c r="E585" s="54"/>
     </row>
-    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="5:5">
       <c r="E586" s="54"/>
     </row>
-    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="5:5">
       <c r="E587" s="54"/>
     </row>
-    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="5:5">
       <c r="E588" s="54"/>
     </row>
-    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="5:5">
       <c r="E589" s="54"/>
     </row>
-    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="5:5">
       <c r="E590" s="54"/>
     </row>
-    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="5:5">
       <c r="E591" s="54"/>
     </row>
-    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="5:5">
       <c r="E592" s="54"/>
     </row>
-    <row r="593" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="5:5">
       <c r="E593" s="54"/>
     </row>
-    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="5:5">
       <c r="E594" s="54"/>
     </row>
-    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="5:5">
       <c r="E595" s="54"/>
     </row>
-    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="5:5">
       <c r="E596" s="54"/>
     </row>
-    <row r="597" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="5:5">
       <c r="E597" s="54"/>
     </row>
-    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="5:5">
       <c r="E598" s="54"/>
     </row>
-    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="5:5">
       <c r="E599" s="54"/>
     </row>
-    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="5:5">
       <c r="E600" s="54"/>
     </row>
-    <row r="601" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="5:5">
       <c r="E601" s="54"/>
     </row>
-    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="5:5">
       <c r="E602" s="54"/>
     </row>
-    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="5:5">
       <c r="E603" s="54"/>
     </row>
-    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="5:5">
       <c r="E604" s="54"/>
     </row>
-    <row r="605" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="5:5">
       <c r="E605" s="54"/>
     </row>
-    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="5:5">
       <c r="E606" s="54"/>
     </row>
-    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="5:5">
       <c r="E607" s="54"/>
     </row>
-    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="5:5">
       <c r="E608" s="54"/>
     </row>
-    <row r="609" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="5:5">
       <c r="E609" s="54"/>
     </row>
-    <row r="610" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="5:5">
       <c r="E610" s="54"/>
     </row>
-    <row r="611" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="5:5">
       <c r="E611" s="54"/>
     </row>
-    <row r="612" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="5:5">
       <c r="E612" s="54"/>
     </row>
-    <row r="613" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="5:5">
       <c r="E613" s="54"/>
     </row>
-    <row r="614" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="5:5">
       <c r="E614" s="54"/>
     </row>
-    <row r="615" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="5:5">
       <c r="E615" s="54"/>
     </row>
-    <row r="616" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="5:5">
       <c r="E616" s="54"/>
     </row>
-    <row r="617" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="5:5">
       <c r="E617" s="54"/>
     </row>
-    <row r="618" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="5:5">
       <c r="E618" s="54"/>
     </row>
-    <row r="619" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="5:5">
       <c r="E619" s="54"/>
     </row>
-    <row r="620" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="5:5">
       <c r="E620" s="54"/>
     </row>
-    <row r="621" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="5:5">
       <c r="E621" s="54"/>
     </row>
-    <row r="622" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="5:5">
       <c r="E622" s="54"/>
     </row>
-    <row r="623" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="5:5">
       <c r="E623" s="54"/>
     </row>
-    <row r="624" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="5:5">
       <c r="E624" s="54"/>
     </row>
-    <row r="625" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="5:5">
       <c r="E625" s="54"/>
     </row>
-    <row r="626" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="5:5">
       <c r="E626" s="54"/>
     </row>
-    <row r="627" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="5:5">
       <c r="E627" s="54"/>
     </row>
-    <row r="628" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="5:5">
       <c r="E628" s="54"/>
     </row>
-    <row r="629" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="5:5">
       <c r="E629" s="54"/>
     </row>
-    <row r="630" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="5:5">
       <c r="E630" s="54"/>
     </row>
-    <row r="631" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="5:5">
       <c r="E631" s="54"/>
     </row>
-    <row r="632" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="5:5">
       <c r="E632" s="54"/>
     </row>
-    <row r="633" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="5:5">
       <c r="E633" s="54"/>
     </row>
-    <row r="634" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="5:5">
       <c r="E634" s="54"/>
     </row>
-    <row r="635" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="5:5">
       <c r="E635" s="54"/>
     </row>
-    <row r="636" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="5:5">
       <c r="E636" s="54"/>
     </row>
-    <row r="637" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="5:5">
       <c r="E637" s="54"/>
     </row>
-    <row r="638" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="5:5">
       <c r="E638" s="54"/>
     </row>
-    <row r="639" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="5:5">
       <c r="E639" s="54"/>
     </row>
-    <row r="640" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="5:5">
       <c r="E640" s="54"/>
     </row>
-    <row r="641" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="5:5">
       <c r="E641" s="54"/>
     </row>
-    <row r="642" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="5:5">
       <c r="E642" s="54"/>
     </row>
-    <row r="643" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="5:5">
       <c r="E643" s="54"/>
     </row>
-    <row r="644" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="5:5">
       <c r="E644" s="54"/>
     </row>
-    <row r="645" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="5:5">
       <c r="E645" s="54"/>
     </row>
-    <row r="646" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="5:5">
       <c r="E646" s="54"/>
     </row>
-    <row r="647" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="5:5">
       <c r="E647" s="54"/>
     </row>
-    <row r="648" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="5:5">
       <c r="E648" s="54"/>
     </row>
-    <row r="649" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="5:5">
       <c r="E649" s="54"/>
     </row>
-    <row r="650" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="5:5">
       <c r="E650" s="54"/>
     </row>
-    <row r="651" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="5:5">
       <c r="E651" s="54"/>
     </row>
-    <row r="652" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="5:5">
       <c r="E652" s="54"/>
     </row>
-    <row r="653" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="5:5">
       <c r="E653" s="54"/>
     </row>
-    <row r="654" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="5:5">
       <c r="E654" s="54"/>
     </row>
-    <row r="655" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="5:5">
       <c r="E655" s="54"/>
     </row>
-    <row r="656" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="5:5">
       <c r="E656" s="54"/>
     </row>
-    <row r="657" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="5:5">
       <c r="E657" s="54"/>
     </row>
-    <row r="658" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="5:5">
       <c r="E658" s="54"/>
     </row>
-    <row r="659" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="5:5">
       <c r="E659" s="54"/>
     </row>
   </sheetData>
@@ -19625,6 +19625,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9b0062f6-3850-45c4-a49c-48289d7656f5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d4476a09-aef8-48ac-8c6f-fc751ea8799c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101004456E7D0170A5843A32AE86FB4FC254D" ma:contentTypeVersion="15" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="235279f01f294a63ec87ee3004477524">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9b0062f6-3850-45c4-a49c-48289d7656f5" xmlns:ns3="d4476a09-aef8-48ac-8c6f-fc751ea8799c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1dda21a9530c309e182265077ef4719b" ns2:_="" ns3:_="">
     <xsd:import namespace="9b0062f6-3850-45c4-a49c-48289d7656f5"/>
@@ -19861,34 +19881,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9b0062f6-3850-45c4-a49c-48289d7656f5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d4476a09-aef8-48ac-8c6f-fc751ea8799c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3388B0AF-4144-44E0-BB33-C4E4884C3354}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2753E322-5DDC-47CB-BBB7-6508C7D83EEC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d4476a09-aef8-48ac-8c6f-fc751ea8799c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9b0062f6-3850-45c4-a49c-48289d7656f5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFC1C8AD-7A40-4F94-9E8E-429D7806ADA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFC1C8AD-7A40-4F94-9E8E-429D7806ADA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2753E322-5DDC-47CB-BBB7-6508C7D83EEC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52F17D84-FE93-4800-BB58-11BC96D5A016}"/>
 </file>